--- a/Listino_agente.xlsx
+++ b/Listino_agente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{D7CD0633-2011-7849-8088-96E9A1E5EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D4D5E93-4371-4955-8626-801ABC8008F8}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{D7CD0633-2011-7849-8088-96E9A1E5EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C485BE2-9E0D-4A4B-A112-0F8576855344}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9960" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,###.00\€"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,13 +1968,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Neo Sans Pro"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2031,7 +2024,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2041,9 +2034,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2056,7 +2047,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2414,17 +2405,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9E130-BDA4-467E-8A1B-5EE4AD58BFA7}">
   <dimension ref="A1:J2690"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="11" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2434,7 +2425,7 @@
       <c r="B1" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>622</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2456,17 +2447,13 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>84.5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="str">
-        <f t="shared" ref="E2:E65" si="0">HYPERLINK(F2,A2)</f>
-        <v>B1704A - BERLIN</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>445</v>
       </c>
       <c r="G2" s="3"/>
@@ -2481,17 +2468,13 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>84.5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1704B - LONDON</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>446</v>
       </c>
       <c r="G3" s="3"/>
@@ -2506,17 +2489,13 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>84.5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1704C - SYDNEY</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>447</v>
       </c>
       <c r="G4" s="3"/>
@@ -2531,17 +2510,13 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>84.5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1704D - NEW YORK</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>448</v>
       </c>
       <c r="G5" s="3"/>
@@ -2556,17 +2531,13 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>84.5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1704E - ROMA</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>449</v>
       </c>
       <c r="G6" s="3"/>
@@ -2581,17 +2552,13 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>86.5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1705A - PARIS</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>450</v>
       </c>
       <c r="G7" s="3"/>
@@ -2606,17 +2573,13 @@
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>122.6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1708A - STOCKHOLM</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>451</v>
       </c>
       <c r="G8" s="3"/>
@@ -2625,23 +2588,19 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1710A - BUDAPEST *</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -2654,17 +2613,13 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>87.6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1711A - ATHENS</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>452</v>
       </c>
       <c r="G10" s="3"/>
@@ -2679,17 +2634,13 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1711C - MADRID</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>453</v>
       </c>
       <c r="G11" s="3"/>
@@ -2704,17 +2655,13 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>97.9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1711B - AMSTERDAM</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>454</v>
       </c>
       <c r="G12" s="3"/>
@@ -2723,23 +2670,19 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>90.6</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1711E - LISBON </v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="3"/>
@@ -2754,17 +2697,13 @@
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>90.6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1712A - BOSTON</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>455</v>
       </c>
       <c r="G14" s="3"/>
@@ -2779,17 +2718,13 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1712B - DUBLIN</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>456</v>
       </c>
       <c r="G15" s="3"/>
@@ -2798,23 +2733,19 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>143.69999999999999</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1713A -  HELSINKI </v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="3"/>
@@ -2823,23 +2754,19 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>154</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1714A - COPENHAGEN </v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="3"/>
@@ -2848,23 +2775,19 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>129.80000000000001</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1721A -  ISTANBUL </v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="3"/>
@@ -2873,23 +2796,19 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>134.9</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1722A - TOKYO </v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="3"/>
@@ -2904,17 +2823,13 @@
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>125.2</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1000B  (AU) - K-ROAD</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>457</v>
       </c>
       <c r="G20" s="3"/>
@@ -2929,17 +2844,13 @@
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>138.6</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1001B  (AU) - K-ROAD TOP</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>458</v>
       </c>
       <c r="G21" s="3"/>
@@ -2954,17 +2865,13 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>109.6</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1004A  (AU) - K-STEP</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>459</v>
       </c>
       <c r="G22" s="3"/>
@@ -2979,17 +2886,13 @@
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>109.6</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1004B - K-MOVE</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>460</v>
       </c>
       <c r="G23" s="3"/>
@@ -3004,17 +2907,13 @@
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>109.6</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1004C  (AU) - K-SPEED</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>461</v>
       </c>
       <c r="G24" s="3"/>
@@ -3029,17 +2928,13 @@
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>118.2</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1004D - K-START</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>462</v>
       </c>
       <c r="G25" s="3"/>
@@ -3054,17 +2949,13 @@
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>138.6</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1005B - K-TREK</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G26" s="3"/>
@@ -3079,17 +2970,13 @@
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>138.6</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1005C - K-RUSH</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>464</v>
       </c>
       <c r="G27" s="3"/>
@@ -3104,17 +2991,13 @@
       <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>110.8</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1006A  (AU) - K-BALANCE</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>465</v>
       </c>
       <c r="G28" s="3"/>
@@ -3129,17 +3012,13 @@
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>110.8</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1006B  (AU) - K-WALK</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>466</v>
       </c>
       <c r="G29" s="3"/>
@@ -3154,17 +3033,13 @@
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>146.1</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1007A  (AU) - K-ENERGY</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>467</v>
       </c>
       <c r="G30" s="3"/>
@@ -3179,17 +3054,13 @@
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <v>90.1</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1008A  (AU) - K-YOUNG</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>468</v>
       </c>
       <c r="G31" s="3"/>
@@ -3204,17 +3075,13 @@
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="9">
         <v>101.6</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1011A - K-CROSS</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>469</v>
       </c>
       <c r="G32" s="3"/>
@@ -3229,17 +3096,13 @@
       <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <v>94.7</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1018A  (AU) - K-UP</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>470</v>
       </c>
       <c r="G33" s="3"/>
@@ -3254,17 +3117,13 @@
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <v>102.9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1037A - K-UP MID</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>471</v>
       </c>
       <c r="G34" s="3"/>
@@ -3279,17 +3138,13 @@
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>137.19999999999999</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1042B - K-BOOGIE TOP</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G35" s="3"/>
@@ -3298,23 +3153,19 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1045A - K-SKIP</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G36" s="3"/>
@@ -3323,23 +3174,19 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>90</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1045B - K-SPIN </v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G37" s="3"/>
@@ -3348,23 +3195,19 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1045C - K-SUPER </v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G38" s="3"/>
@@ -3376,20 +3219,16 @@
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <v>105.5</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1049A - K-FLICK </v>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3399,20 +3238,16 @@
       <c r="A40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>99.2</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1049B - K-TWIRL </v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -3422,20 +3257,16 @@
       <c r="A41" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>124.5</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1051A - K-LANDING </v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3448,17 +3279,13 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <v>112.3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1601 - T-REX MID</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>473</v>
       </c>
       <c r="G42" s="3"/>
@@ -3473,17 +3300,13 @@
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <v>112.3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1601B - T-WALL MID</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>474</v>
       </c>
       <c r="G43" s="3"/>
@@ -3498,17 +3321,13 @@
       <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <v>132.9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1603 - T-FORT MID</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>475</v>
       </c>
       <c r="G44" s="3"/>
@@ -3523,17 +3342,13 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>160.19999999999999</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1604A - T-ROBUST LOW</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="G45" s="3"/>
@@ -3548,17 +3363,13 @@
       <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>172</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1605 - T-ROBUST</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>476</v>
       </c>
       <c r="G46" s="3"/>
@@ -3573,17 +3384,13 @@
       <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>172</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">B1605 - T-ROBUST </v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>476</v>
       </c>
       <c r="G47" s="3"/>
@@ -3598,17 +3405,13 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>129.80000000000001</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1610 - T-REX TOP</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>477</v>
       </c>
       <c r="G48" s="3"/>
@@ -3623,17 +3426,13 @@
       <c r="B49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <v>129.80000000000001</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1610B - T-WALL TOP</v>
-      </c>
-      <c r="F49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>478</v>
       </c>
       <c r="G49" s="3"/>
@@ -3648,17 +3447,13 @@
       <c r="B50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="9">
         <v>140</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1611 - T-MASSIVE</v>
-      </c>
-      <c r="F50" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>479</v>
       </c>
       <c r="G50" s="3"/>
@@ -3673,17 +3468,13 @@
       <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="9">
         <v>194.7</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B1613 - T-ROBUST TOP</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>480</v>
       </c>
       <c r="G51" s="3"/>
@@ -3698,17 +3489,13 @@
       <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="9">
         <v>96</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0666A - GRAND CANYON</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G52" s="3"/>
@@ -3723,17 +3510,13 @@
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="9">
         <v>97</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0666B - YELLOWSTONE</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>482</v>
       </c>
       <c r="G53" s="3"/>
@@ -3748,17 +3531,13 @@
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="9">
         <v>103</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0667B - YELLOWSTONE TOP</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>483</v>
       </c>
       <c r="G54" s="3"/>
@@ -3773,17 +3552,13 @@
       <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="9">
         <v>83.7</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0609 - RAFTING</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>484</v>
       </c>
       <c r="G55" s="3"/>
@@ -3798,17 +3573,13 @@
       <c r="B56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="9">
         <v>88.2</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0610 - RAFTING TOP</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>485</v>
       </c>
       <c r="G56" s="3"/>
@@ -3823,17 +3594,13 @@
       <c r="B57" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="9">
         <v>95.5</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0617 - AEROBIC</v>
-      </c>
-      <c r="F57" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>486</v>
       </c>
       <c r="G57" s="3"/>
@@ -3848,17 +3615,13 @@
       <c r="B58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="9">
         <v>95.6</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0618 - CLIMB</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>487</v>
       </c>
       <c r="G58" s="3"/>
@@ -3873,17 +3636,13 @@
       <c r="B59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="9">
         <v>84</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0620 - SWIM</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>488</v>
       </c>
       <c r="G59" s="3"/>
@@ -3898,17 +3657,13 @@
       <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="9">
         <v>95.5</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E60" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0643 - DARTS</v>
-      </c>
-      <c r="F60" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>489</v>
       </c>
       <c r="G60" s="3"/>
@@ -3923,17 +3678,13 @@
       <c r="B61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="9">
         <v>95.5</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0647 - FRISBEE</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>490</v>
       </c>
       <c r="G61" s="3"/>
@@ -3948,17 +3699,13 @@
       <c r="B62" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="9">
         <v>96.6</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0652 - DEALER</v>
-      </c>
-      <c r="F62" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>491</v>
       </c>
       <c r="G62" s="3"/>
@@ -3973,17 +3720,13 @@
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="9">
         <v>86</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0671 - ACE</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>492</v>
       </c>
       <c r="G63" s="3"/>
@@ -3998,17 +3741,13 @@
       <c r="B64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="9">
         <v>79.599999999999994</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0676 - BOWLING</v>
-      </c>
-      <c r="F64" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>493</v>
       </c>
       <c r="G64" s="3"/>
@@ -4023,17 +3762,13 @@
       <c r="B65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="9">
         <v>88.9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>B0677 - MARATHON</v>
-      </c>
-      <c r="F65" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>494</v>
       </c>
       <c r="G65" s="3"/>
@@ -4048,17 +3783,13 @@
       <c r="B66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="9">
         <v>98.4</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="7" t="str">
-        <f t="shared" ref="E66:E129" si="1">HYPERLINK(F66,A66)</f>
-        <v>B0677B - MARATHON ESD</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>495</v>
       </c>
       <c r="G66" s="3"/>
@@ -4073,17 +3804,13 @@
       <c r="B67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="9">
         <v>87.8</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0678 - BOWLING TOP</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>496</v>
       </c>
       <c r="G67" s="3"/>
@@ -4098,17 +3825,13 @@
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="9">
         <v>83.5</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1205A - i-Bit</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>497</v>
       </c>
       <c r="G68" s="3"/>
@@ -4123,17 +3846,13 @@
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="9">
         <v>79.599999999999994</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1206A - i-LAB</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>498</v>
       </c>
       <c r="G69" s="3"/>
@@ -4148,17 +3867,13 @@
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="9">
         <v>78</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E70" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1208B - i-ROBOX BLUE</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>499</v>
       </c>
       <c r="G70" s="3"/>
@@ -4173,17 +3888,13 @@
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="9">
         <v>80.5</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1209B - i-ROBOX BLUE TOP</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>500</v>
       </c>
       <c r="G71" s="3"/>
@@ -4198,17 +3909,13 @@
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="9">
         <v>79.099999999999994</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E72" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1210 - i-ROBOX</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>501</v>
       </c>
       <c r="G72" s="3"/>
@@ -4223,17 +3930,13 @@
       <c r="B73" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="9">
         <v>79.099999999999994</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E73" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1210B - i-ROBOX ORANGE</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G73" s="3"/>
@@ -4248,17 +3951,13 @@
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="9">
         <v>84.8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1211 - i-ROBOX TOP</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>502</v>
       </c>
       <c r="G74" s="3"/>
@@ -4273,17 +3972,13 @@
       <c r="B75" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="9">
         <v>84.8</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E75" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>B1211B - i-ROBOX TOP ORANGE</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G75" s="3"/>
@@ -4298,17 +3993,13 @@
       <c r="B76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="9">
         <v>73.599999999999994</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1212A - i-CYBER FLUO</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>503</v>
       </c>
       <c r="G76" s="3"/>
@@ -4323,17 +4014,13 @@
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="9">
         <v>73.599999999999994</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E77" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1212B - i-CYBER</v>
-      </c>
-      <c r="F77" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>504</v>
       </c>
       <c r="G77" s="3"/>
@@ -4348,17 +4035,13 @@
       <c r="B78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="9">
         <v>78</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E78" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1213A - i-CYBER FLUO TOP</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>505</v>
       </c>
       <c r="G78" s="3"/>
@@ -4373,17 +4056,13 @@
       <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="9">
         <v>78</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E79" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1213B - i-CYBER TOP</v>
-      </c>
-      <c r="F79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>506</v>
       </c>
       <c r="G79" s="3"/>
@@ -4398,17 +4077,13 @@
       <c r="B80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="9">
         <v>76.099999999999994</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E80" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1217 - i-Tool</v>
-      </c>
-      <c r="F80" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>507</v>
       </c>
       <c r="G80" s="3"/>
@@ -4423,17 +4098,13 @@
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="9">
         <v>106.6</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E81" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1223 - i-Code</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>508</v>
       </c>
       <c r="G81" s="3"/>
@@ -4448,17 +4119,13 @@
       <c r="B82" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="9">
         <v>105</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E82" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0741 - BISON TOP</v>
-      </c>
-      <c r="F82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>509</v>
       </c>
       <c r="G82" s="3"/>
@@ -4473,17 +4140,13 @@
       <c r="B83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="9">
         <v>118</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E83" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0745 - ELK</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>510</v>
       </c>
       <c r="G83" s="3"/>
@@ -4498,17 +4161,13 @@
       <c r="B84" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="9">
         <v>74.7</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E84" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0866 - BE-BROWNY</v>
-      </c>
-      <c r="F84" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>511</v>
       </c>
       <c r="G84" s="3"/>
@@ -4523,17 +4182,13 @@
       <c r="B85" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="9">
         <v>98.7</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0870 - BE-EXTREME</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>512</v>
       </c>
       <c r="G85" s="3"/>
@@ -4548,17 +4203,13 @@
       <c r="B86" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="9">
         <v>103.2</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E86" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0870B - BE-EXTREME W</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>513</v>
       </c>
       <c r="G86" s="3"/>
@@ -4573,17 +4224,13 @@
       <c r="B87" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="9">
         <v>81.5</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E87" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0872 - BE-FREE</v>
-      </c>
-      <c r="F87" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>514</v>
       </c>
       <c r="G87" s="3"/>
@@ -4598,17 +4245,13 @@
       <c r="B88" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="9">
         <v>84</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E88" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0873 - BE-FREE TOP</v>
-      </c>
-      <c r="F88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>515</v>
       </c>
       <c r="G88" s="3"/>
@@ -4623,17 +4266,13 @@
       <c r="B89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="9">
         <v>81.5</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E89" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0874 - BE-JOY</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>516</v>
       </c>
       <c r="G89" s="3"/>
@@ -4648,17 +4287,13 @@
       <c r="B90" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="9">
         <v>84</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E90" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0875 - BE-JOY TOP</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>517</v>
       </c>
       <c r="G90" s="3"/>
@@ -4673,17 +4308,13 @@
       <c r="B91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="9">
         <v>77.099999999999994</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E91" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0883 - BE-BROWNY TOP</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>518</v>
       </c>
       <c r="G91" s="3"/>
@@ -4698,17 +4329,13 @@
       <c r="B92" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="9">
         <v>77.099999999999994</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E92" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0883B - BE-JETTY TOP</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>519</v>
       </c>
       <c r="G92" s="3"/>
@@ -4723,17 +4350,13 @@
       <c r="B93" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="9">
         <v>81.3</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E93" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0886 - BE-STYLE</v>
-      </c>
-      <c r="F93" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>520</v>
       </c>
       <c r="G93" s="3"/>
@@ -4748,17 +4371,13 @@
       <c r="B94" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="9">
         <v>86.7</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0887 - BE-STRONG</v>
-      </c>
-      <c r="F94" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>521</v>
       </c>
       <c r="G94" s="3"/>
@@ -4773,17 +4392,13 @@
       <c r="B95" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="9">
         <v>93.1</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E95" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0888 - BE-STRONG TOP</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>522</v>
       </c>
       <c r="G95" s="3"/>
@@ -4798,17 +4413,13 @@
       <c r="B96" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="9">
         <v>97.2</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E96" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0888N - BE-UNIFORM TOP</v>
-      </c>
-      <c r="F96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>523</v>
       </c>
       <c r="G96" s="3"/>
@@ -4823,17 +4434,13 @@
       <c r="B97" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="9">
         <v>92.1</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E97" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0410 - WELDER</v>
-      </c>
-      <c r="F97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>524</v>
       </c>
       <c r="G97" s="3"/>
@@ -4848,17 +4455,13 @@
       <c r="B98" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="9">
         <v>73.2</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E98" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0993A - PERSEUS</v>
-      </c>
-      <c r="F98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>525</v>
       </c>
       <c r="G98" s="3"/>
@@ -4873,17 +4476,13 @@
       <c r="B99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="9">
         <v>68.599999999999994</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0473 - METATARSAL</v>
-      </c>
-      <c r="F99" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>526</v>
       </c>
       <c r="G99" s="3"/>
@@ -4898,17 +4497,13 @@
       <c r="B100" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="9">
         <v>180.3</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E100" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0850 - BE-OSLO</v>
-      </c>
-      <c r="F100" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>527</v>
       </c>
       <c r="G100" s="3"/>
@@ -4923,17 +4518,13 @@
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="10">
         <v>92</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1233A - i-META</v>
-      </c>
-      <c r="F101" s="2">
+      <c r="E101" s="2">
         <v>0</v>
       </c>
       <c r="G101" s="3"/>
@@ -4948,17 +4539,13 @@
       <c r="B102" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="10">
         <v>99</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">B1234A -  i-META MID </v>
-      </c>
-      <c r="F102" s="6"/>
+      <c r="E102" s="6"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -4971,17 +4558,13 @@
       <c r="B103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="10">
         <v>108</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E103" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0858A - META TOP</v>
-      </c>
-      <c r="F103" s="2">
+      <c r="E103" s="2">
         <v>0</v>
       </c>
       <c r="G103" s="3"/>
@@ -4996,17 +4579,13 @@
       <c r="B104" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="10">
         <v>80.599999999999994</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1235A  (EH) - i-OMEGA</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>224</v>
       </c>
       <c r="G104" s="3"/>
@@ -5021,17 +4600,13 @@
       <c r="B105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="10">
         <v>86.5</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E105" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">B1236A  (EH) - i-OMEGA TOP </v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G105" s="3"/>
@@ -5046,17 +4621,13 @@
       <c r="B106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="9">
         <v>94.8</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E106" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0880 - SPARKLE</v>
-      </c>
-      <c r="F106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>528</v>
       </c>
       <c r="G106" s="3"/>
@@ -5071,17 +4642,13 @@
       <c r="B107" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="9">
         <v>99.2</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E107" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0891C - BE-STONE</v>
-      </c>
-      <c r="F107" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>529</v>
       </c>
       <c r="G107" s="3"/>
@@ -5096,17 +4663,13 @@
       <c r="B108" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="9">
         <v>125.2</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E108" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0895S - BE-DRY MID</v>
-      </c>
-      <c r="F108" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G108" s="3"/>
@@ -5121,17 +4684,13 @@
       <c r="B109" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="9">
         <v>125.2</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E109" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0895Y - BE-ROCK</v>
-      </c>
-      <c r="F109" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>531</v>
       </c>
       <c r="G109" s="3"/>
@@ -5146,17 +4705,13 @@
       <c r="B110" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="9">
         <v>96.3</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E110" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0897S - BE-POWERFUL</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>532</v>
       </c>
       <c r="G110" s="3"/>
@@ -5171,17 +4726,13 @@
       <c r="B111" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="9">
         <v>102.4</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E111" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0898S - BE-POWERFUL TOP</v>
-      </c>
-      <c r="F111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>533</v>
       </c>
       <c r="G111" s="3"/>
@@ -5196,17 +4747,13 @@
       <c r="B112" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="9">
         <v>77.3</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E112" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1500 - ORBIT</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>534</v>
       </c>
       <c r="G112" s="3"/>
@@ -5221,17 +4768,13 @@
       <c r="B113" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="9">
         <v>86.2</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E113" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1501 - UNIVERSE</v>
-      </c>
-      <c r="F113" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>535</v>
       </c>
       <c r="G113" s="3"/>
@@ -5246,17 +4789,13 @@
       <c r="B114" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="9">
         <v>86.7</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1502 - ROCKET</v>
-      </c>
-      <c r="F114" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>536</v>
       </c>
       <c r="G114" s="3"/>
@@ -5271,17 +4810,13 @@
       <c r="B115" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="9">
         <v>81.599999999999994</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E115" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1503 - COSMOS</v>
-      </c>
-      <c r="F115" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>537</v>
       </c>
       <c r="G115" s="3"/>
@@ -5296,17 +4831,13 @@
       <c r="B116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="9">
         <v>99.3</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E116" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0240 - SELFIE</v>
-      </c>
-      <c r="F116" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>538</v>
       </c>
       <c r="G116" s="3"/>
@@ -5321,17 +4852,13 @@
       <c r="B117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="9">
         <v>105.3</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E117" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0241 - OAK</v>
-      </c>
-      <c r="F117" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>539</v>
       </c>
       <c r="G117" s="3"/>
@@ -5346,17 +4873,13 @@
       <c r="B118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="9">
         <v>80.599999999999994</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E118" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0251 - PIXEL</v>
-      </c>
-      <c r="F118" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>540</v>
       </c>
       <c r="G118" s="3"/>
@@ -5371,17 +4894,13 @@
       <c r="B119" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="9">
         <v>51.7</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E119" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0168D - ZOE</v>
-      </c>
-      <c r="F119" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>541</v>
       </c>
       <c r="G119" s="3"/>
@@ -5396,17 +4915,13 @@
       <c r="B120" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="10">
         <v>88.5</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E120" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0240B - MARGOT</v>
-      </c>
-      <c r="F120" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>542</v>
       </c>
       <c r="G120" s="3"/>
@@ -5421,17 +4936,13 @@
       <c r="B121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="10">
         <v>93.9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E121" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0241B - MARGOT TOP</v>
-      </c>
-      <c r="F121" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>543</v>
       </c>
       <c r="G121" s="3"/>
@@ -5446,17 +4957,13 @@
       <c r="B122" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="9">
         <v>86</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E122" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0670 - ATTITUDE</v>
-      </c>
-      <c r="F122" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>544</v>
       </c>
       <c r="G122" s="3"/>
@@ -5471,17 +4978,13 @@
       <c r="B123" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="9">
         <v>88.9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E123" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0677C - VIOLET</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>545</v>
       </c>
       <c r="G123" s="3"/>
@@ -5496,17 +4999,13 @@
       <c r="B124" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="9">
         <v>73.599999999999994</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E124" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B1212C - ARYA</v>
-      </c>
-      <c r="F124" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>546</v>
       </c>
       <c r="G124" s="3"/>
@@ -5521,17 +5020,13 @@
       <c r="B125" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="9">
         <v>58.1</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E125" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0505 - OSMIO</v>
-      </c>
-      <c r="F125" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>547</v>
       </c>
       <c r="G125" s="3"/>
@@ -5546,17 +5041,13 @@
       <c r="B126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="9">
         <v>62.3</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E126" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0507 - CLORO</v>
-      </c>
-      <c r="F126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>548</v>
       </c>
       <c r="G126" s="3"/>
@@ -5571,17 +5062,13 @@
       <c r="B127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="9">
         <v>62.3</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E127" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0507N - CLORO N</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>549</v>
       </c>
       <c r="G127" s="3"/>
@@ -5596,17 +5083,13 @@
       <c r="B128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="9">
         <v>63.6</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E128" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0508 - CROMO</v>
-      </c>
-      <c r="F128" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>550</v>
       </c>
       <c r="G128" s="3"/>
@@ -5621,17 +5104,13 @@
       <c r="B129" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="9">
         <v>48.4</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E129" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>B0509 - CADMIO</v>
-      </c>
-      <c r="F129" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>551</v>
       </c>
       <c r="G129" s="3"/>
@@ -5646,17 +5125,13 @@
       <c r="B130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="9">
         <v>54.6</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E130" s="7" t="str">
-        <f t="shared" ref="E130:E193" si="2">HYPERLINK(F130,A130)</f>
-        <v>B0510 - ARGO</v>
-      </c>
-      <c r="F130" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>552</v>
       </c>
       <c r="G130" s="3"/>
@@ -5671,17 +5146,13 @@
       <c r="B131" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="9">
         <v>63.7</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E131" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0537 - LITIO</v>
-      </c>
-      <c r="F131" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>553</v>
       </c>
       <c r="G131" s="3"/>
@@ -5696,17 +5167,13 @@
       <c r="B132" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="9">
         <v>66</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E132" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0540 - VANADIO</v>
-      </c>
-      <c r="F132" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>554</v>
       </c>
       <c r="G132" s="3"/>
@@ -5721,17 +5188,13 @@
       <c r="B133" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="9">
         <v>38.299999999999997</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E133" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0551 - XENO</v>
-      </c>
-      <c r="F133" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>555</v>
       </c>
       <c r="G133" s="3"/>
@@ -5746,17 +5209,13 @@
       <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="9">
         <v>38.299999999999997</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E134" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0553 - RADON</v>
-      </c>
-      <c r="F134" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>556</v>
       </c>
       <c r="G134" s="3"/>
@@ -5771,17 +5230,13 @@
       <c r="B135" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="9">
         <v>85.7</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E135" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0636 - BOB</v>
-      </c>
-      <c r="F135" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>557</v>
       </c>
       <c r="G135" s="3"/>
@@ -5796,17 +5251,13 @@
       <c r="B136" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="9">
         <v>85.6</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E136" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0637 - SKY</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>558</v>
       </c>
       <c r="G136" s="3"/>
@@ -5821,17 +5272,13 @@
       <c r="B137" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="9">
         <v>67.8</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E137" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0696 - COOKING</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>559</v>
       </c>
       <c r="G137" s="3"/>
@@ -5846,17 +5293,13 @@
       <c r="B138" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="9">
         <v>63.6</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E138" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0962 - KUMA</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>560</v>
       </c>
       <c r="G138" s="3"/>
@@ -5871,17 +5314,13 @@
       <c r="B139" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="9">
         <v>63.6</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E139" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0962B - KUMA BLACK</v>
-      </c>
-      <c r="F139" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>561</v>
       </c>
       <c r="G139" s="3"/>
@@ -5896,17 +5335,13 @@
       <c r="B140" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="9">
         <v>63.6</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E140" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0962E - KUMA ESD</v>
-      </c>
-      <c r="F140" s="6"/>
+      <c r="E140" s="6"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -5919,17 +5354,13 @@
       <c r="B141" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="9">
         <v>64.2</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E141" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0966A - KUMA TOP</v>
-      </c>
-      <c r="F141" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>562</v>
       </c>
       <c r="G141" s="3"/>
@@ -5944,17 +5375,13 @@
       <c r="B142" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="9">
         <v>64.2</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E142" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0966E - KUMA TOP ESD</v>
-      </c>
-      <c r="F142" s="6"/>
+      <c r="E142" s="6"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -5967,17 +5394,13 @@
       <c r="B143" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="9">
         <v>62.5</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E143" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0980 - NATRIUM</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="E143" s="6" t="s">
         <v>563</v>
       </c>
       <c r="G143" s="3"/>
@@ -5992,17 +5415,13 @@
       <c r="B144" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="9">
         <v>65.900000000000006</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E144" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0981 - NATRIUM TOP</v>
-      </c>
-      <c r="F144" s="6" t="s">
+      <c r="E144" s="6" t="s">
         <v>564</v>
       </c>
       <c r="G144" s="3"/>
@@ -6017,17 +5436,13 @@
       <c r="B145" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C145" s="9">
         <v>72.900000000000006</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E145" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0985A - NAUTILUS BLACK</v>
-      </c>
-      <c r="F145" s="6" t="s">
+      <c r="E145" s="6" t="s">
         <v>565</v>
       </c>
       <c r="G145" s="3"/>
@@ -6042,17 +5457,13 @@
       <c r="B146" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="9">
         <v>72.900000000000006</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E146" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0985B - NAUTILUS</v>
-      </c>
-      <c r="F146" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>566</v>
       </c>
       <c r="G146" s="3"/>
@@ -6067,17 +5478,13 @@
       <c r="B147" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="9">
         <v>79</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E147" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0114B - VERDI HRO</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>567</v>
       </c>
       <c r="G147" s="3"/>
@@ -6092,17 +5499,13 @@
       <c r="B148" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="9">
         <v>75.2</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E148" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0118 - MOZART</v>
-      </c>
-      <c r="F148" s="6" t="s">
+      <c r="E148" s="6" t="s">
         <v>568</v>
       </c>
       <c r="G148" s="3"/>
@@ -6117,17 +5520,13 @@
       <c r="B149" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C149" s="9">
         <v>78.599999999999994</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E149" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0119 - BEETHOVEN</v>
-      </c>
-      <c r="F149" s="6" t="s">
+      <c r="E149" s="6" t="s">
         <v>569</v>
       </c>
       <c r="G149" s="3"/>
@@ -6142,17 +5541,13 @@
       <c r="B150" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C150" s="9">
         <v>86.4</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E150" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0120 - BACH</v>
-      </c>
-      <c r="F150" s="6" t="s">
+      <c r="E150" s="6" t="s">
         <v>570</v>
       </c>
       <c r="G150" s="3"/>
@@ -6167,17 +5562,13 @@
       <c r="B151" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C151" s="11">
+      <c r="C151" s="9">
         <v>76.5</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E151" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0186 - GELDOF</v>
-      </c>
-      <c r="F151" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>571</v>
       </c>
       <c r="G151" s="3"/>
@@ -6192,17 +5583,13 @@
       <c r="B152" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="9">
         <v>87.9</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E152" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0416N - RAIDER TOP</v>
-      </c>
-      <c r="F152" s="6" t="s">
+      <c r="E152" s="6" t="s">
         <v>572</v>
       </c>
       <c r="G152" s="3"/>
@@ -6217,17 +5604,13 @@
       <c r="B153" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="9">
         <v>74.099999999999994</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E153" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0440 - MECHANIC</v>
-      </c>
-      <c r="F153" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>573</v>
       </c>
       <c r="G153" s="3"/>
@@ -6242,17 +5625,13 @@
       <c r="B154" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C154" s="9">
         <v>82.4</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E154" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0475 - FOUR HOLES</v>
-      </c>
-      <c r="F154" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>574</v>
       </c>
       <c r="G154" s="3"/>
@@ -6267,17 +5646,13 @@
       <c r="B155" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="10">
         <v>63.5</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E155" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">B0904A - HALLEY </v>
-      </c>
-      <c r="F155" s="6"/>
+      <c r="E155" s="6"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -6290,17 +5665,13 @@
       <c r="B156" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C156" s="9">
         <v>60.3</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E156" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0950B - IZAR</v>
-      </c>
-      <c r="F156" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>575</v>
       </c>
       <c r="G156" s="3"/>
@@ -6315,17 +5686,13 @@
       <c r="B157" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C157" s="11">
+      <c r="C157" s="9">
         <v>62.6</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E157" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0951B - IZAR TOP</v>
-      </c>
-      <c r="F157" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>576</v>
       </c>
       <c r="G157" s="3"/>
@@ -6340,17 +5707,13 @@
       <c r="B158" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="11">
+      <c r="C158" s="9">
         <v>60.3</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E158" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0952 - PULSAR</v>
-      </c>
-      <c r="F158" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>577</v>
       </c>
       <c r="G158" s="3"/>
@@ -6365,17 +5728,13 @@
       <c r="B159" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C159" s="11">
+      <c r="C159" s="9">
         <v>63.8</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E159" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0954 - PULSAR TOP</v>
-      </c>
-      <c r="F159" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>578</v>
       </c>
       <c r="G159" s="3"/>
@@ -6390,17 +5749,13 @@
       <c r="B160" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C160" s="11">
+      <c r="C160" s="9">
         <v>77.400000000000006</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E160" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0958 - MATAR TOP</v>
-      </c>
-      <c r="F160" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>579</v>
       </c>
       <c r="G160" s="3"/>
@@ -6415,17 +5770,13 @@
       <c r="B161" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C161" s="11">
+      <c r="C161" s="9">
         <v>70.7</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E161" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0967A - SYRIUS</v>
-      </c>
-      <c r="F161" s="6" t="s">
+      <c r="E161" s="6" t="s">
         <v>580</v>
       </c>
       <c r="G161" s="3"/>
@@ -6440,17 +5791,13 @@
       <c r="B162" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C162" s="11">
+      <c r="C162" s="9">
         <v>64.2</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E162" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0978 - OREN</v>
-      </c>
-      <c r="F162" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>581</v>
       </c>
       <c r="G162" s="3"/>
@@ -6465,17 +5812,13 @@
       <c r="B163" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C163" s="11">
+      <c r="C163" s="9">
         <v>70.099999999999994</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E163" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0978B - OREN ESD</v>
-      </c>
-      <c r="F163" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>582</v>
       </c>
       <c r="G163" s="3"/>
@@ -6490,17 +5833,13 @@
       <c r="B164" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="9">
         <v>69</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E164" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0979 - OREN TOP</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>583</v>
       </c>
       <c r="G164" s="3"/>
@@ -6515,17 +5854,13 @@
       <c r="B165" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C165" s="11">
+      <c r="C165" s="9">
         <v>74.8</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E165" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0979B - OREN TOP ESD</v>
-      </c>
-      <c r="F165" s="6" t="s">
+      <c r="E165" s="6" t="s">
         <v>584</v>
       </c>
       <c r="G165" s="3"/>
@@ -6540,17 +5875,13 @@
       <c r="B166" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C166" s="11">
+      <c r="C166" s="9">
         <v>68.7</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E166" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0982A - DIONE</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="E166" s="6" t="s">
         <v>585</v>
       </c>
       <c r="G166" s="3"/>
@@ -6565,17 +5896,13 @@
       <c r="B167" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C167" s="11">
+      <c r="C167" s="9">
         <v>67.7</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E167" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0982B - ERIS</v>
-      </c>
-      <c r="F167" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>586</v>
       </c>
       <c r="G167" s="3"/>
@@ -6590,17 +5917,13 @@
       <c r="B168" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C168" s="9">
         <v>74.7</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E168" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0983A - DIONE TOP</v>
-      </c>
-      <c r="F168" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>587</v>
       </c>
       <c r="G168" s="3"/>
@@ -6615,17 +5938,13 @@
       <c r="B169" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="10">
         <v>47</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E169" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">B0134A -  LUMIAR </v>
-      </c>
-      <c r="F169" s="6"/>
+      <c r="E169" s="6"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -6638,40 +5957,32 @@
       <c r="B170" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="10">
         <v>47</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E170" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">B0134B -  EUSTON </v>
-      </c>
-      <c r="F170" s="6"/>
+      <c r="E170" s="6"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C171" s="20">
+      <c r="C171" s="18">
         <v>45</v>
       </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E171" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0134C - BARISTA *</v>
-      </c>
-      <c r="F171" s="6"/>
+      <c r="E171" s="6"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -6684,17 +5995,13 @@
       <c r="B172" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="10">
         <v>51.5</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E172" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">B0136A - MONTMARTRE </v>
-      </c>
-      <c r="F172" s="6"/>
+      <c r="E172" s="6"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -6707,17 +6014,13 @@
       <c r="B173" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="10">
         <v>49.9</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E173" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">B0136B - ARENAL </v>
-      </c>
-      <c r="F173" s="6"/>
+      <c r="E173" s="6"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -6730,86 +6033,70 @@
       <c r="B174" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="10">
         <v>49.9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E174" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">B0136C - CADORNA </v>
-      </c>
-      <c r="F174" s="6"/>
+      <c r="E174" s="6"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="B175" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C175" s="20">
+      <c r="C175" s="18">
         <v>54</v>
       </c>
-      <c r="D175" s="15" t="s">
+      <c r="D175" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="E175" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0137A - MONTMARTRE TOP *</v>
-      </c>
-      <c r="F175" s="6"/>
+      <c r="E175" s="6"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
     <row r="176" spans="1:10">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C176" s="20">
+      <c r="C176" s="18">
         <v>53.15</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E176" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0137B - CADORNA TOP *</v>
-      </c>
-      <c r="F176" s="6"/>
+      <c r="E176" s="6"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
     <row r="177" spans="1:10">
-      <c r="A177" s="18" t="s">
+      <c r="A177" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C177" s="20">
+      <c r="C177" s="18">
         <v>53</v>
       </c>
-      <c r="D177" s="15" t="s">
+      <c r="D177" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="E177" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0138A - LINGOTTO *</v>
-      </c>
-      <c r="F177" s="6"/>
+      <c r="E177" s="6"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -6822,17 +6109,13 @@
       <c r="B178" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C178" s="11">
+      <c r="C178" s="9">
         <v>52.2</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E178" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0150 - OPERA</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="E178" s="6" t="s">
         <v>588</v>
       </c>
       <c r="G178" s="3"/>
@@ -6847,17 +6130,13 @@
       <c r="B179" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C179" s="11">
+      <c r="C179" s="9">
         <v>53.5</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E179" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0153 - TERMINI</v>
-      </c>
-      <c r="F179" s="6" t="s">
+      <c r="E179" s="6" t="s">
         <v>589</v>
       </c>
       <c r="G179" s="3"/>
@@ -6872,17 +6151,13 @@
       <c r="B180" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C180" s="11">
+      <c r="C180" s="9">
         <v>56.9</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E180" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0154 - PRADO</v>
-      </c>
-      <c r="F180" s="6" t="s">
+      <c r="E180" s="6" t="s">
         <v>590</v>
       </c>
       <c r="G180" s="3"/>
@@ -6897,17 +6172,13 @@
       <c r="B181" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C181" s="11">
+      <c r="C181" s="9">
         <v>57.2</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E181" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0155 - GARIBALDI</v>
-      </c>
-      <c r="F181" s="6" t="s">
+      <c r="E181" s="6" t="s">
         <v>591</v>
       </c>
       <c r="G181" s="3"/>
@@ -6922,17 +6193,13 @@
       <c r="B182" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="9">
         <v>61.2</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E182" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0156 - DAMMTOR</v>
-      </c>
-      <c r="F182" s="6" t="s">
+      <c r="E182" s="6" t="s">
         <v>592</v>
       </c>
       <c r="G182" s="3"/>
@@ -6947,17 +6214,13 @@
       <c r="B183" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C183" s="11">
+      <c r="C183" s="9">
         <v>52.2</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E183" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0163 - COLOSSEUM</v>
-      </c>
-      <c r="F183" s="6" t="s">
+      <c r="E183" s="6" t="s">
         <v>593</v>
       </c>
       <c r="G183" s="3"/>
@@ -6972,17 +6235,13 @@
       <c r="B184" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C184" s="11">
+      <c r="C184" s="9">
         <v>48.2</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E184" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0164 - TRIBECA</v>
-      </c>
-      <c r="F184" s="6" t="s">
+      <c r="E184" s="6" t="s">
         <v>594</v>
       </c>
       <c r="G184" s="3"/>
@@ -6997,17 +6256,13 @@
       <c r="B185" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C185" s="11">
+      <c r="C185" s="9">
         <v>50.5</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="E185" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0165 - PADDINGTON</v>
-      </c>
-      <c r="F185" s="6" t="s">
+      <c r="E185" s="6" t="s">
         <v>595</v>
       </c>
       <c r="G185" s="3"/>
@@ -7022,17 +6277,13 @@
       <c r="B186" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C186" s="11">
+      <c r="C186" s="9">
         <v>53.5</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E186" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0166 - ETOILE</v>
-      </c>
-      <c r="F186" s="6" t="s">
+      <c r="E186" s="6" t="s">
         <v>596</v>
       </c>
       <c r="G186" s="3"/>
@@ -7047,17 +6298,13 @@
       <c r="B187" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C187" s="11">
+      <c r="C187" s="9">
         <v>56.9</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E187" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0167 - PIGALLE</v>
-      </c>
-      <c r="F187" s="6" t="s">
+      <c r="E187" s="6" t="s">
         <v>597</v>
       </c>
       <c r="G187" s="3"/>
@@ -7072,17 +6319,13 @@
       <c r="B188" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C188" s="11">
+      <c r="C188" s="9">
         <v>51.7</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E188" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0168B - TOLEDO</v>
-      </c>
-      <c r="F188" s="6" t="s">
+      <c r="E188" s="6" t="s">
         <v>598</v>
       </c>
       <c r="G188" s="3"/>
@@ -7097,17 +6340,13 @@
       <c r="B189" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C189" s="11">
+      <c r="C189" s="9">
         <v>68.5</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E189" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0169 - GREENWICH</v>
-      </c>
-      <c r="F189" s="6" t="s">
+      <c r="E189" s="6" t="s">
         <v>599</v>
       </c>
       <c r="G189" s="3"/>
@@ -7122,17 +6361,13 @@
       <c r="B190" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C190" s="9">
         <v>61</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E190" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0173 - CENTRAL</v>
-      </c>
-      <c r="F190" s="6" t="s">
+      <c r="E190" s="6" t="s">
         <v>600</v>
       </c>
       <c r="G190" s="3"/>
@@ -7147,17 +6382,13 @@
       <c r="B191" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C191" s="11">
+      <c r="C191" s="9">
         <v>55.2</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E191" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0175 - HARLEM</v>
-      </c>
-      <c r="F191" s="6" t="s">
+      <c r="E191" s="6" t="s">
         <v>601</v>
       </c>
       <c r="G191" s="3"/>
@@ -7172,17 +6403,13 @@
       <c r="B192" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C192" s="11">
+      <c r="C192" s="9">
         <v>68.2</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E192" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0177 - CHESTER TOP</v>
-      </c>
-      <c r="F192" s="6" t="s">
+      <c r="E192" s="6" t="s">
         <v>602</v>
       </c>
       <c r="G192" s="3"/>
@@ -7197,17 +6424,13 @@
       <c r="B193" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C193" s="11">
+      <c r="C193" s="9">
         <v>64.5</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E193" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>B0178 - CHESTER</v>
-      </c>
-      <c r="F193" s="6" t="s">
+      <c r="E193" s="6" t="s">
         <v>603</v>
       </c>
       <c r="G193" s="3"/>
@@ -7216,23 +6439,19 @@
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10">
-      <c r="A194" s="17" t="s">
+      <c r="A194" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C194" s="11">
+      <c r="C194" s="9">
         <v>26.8</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="E194" s="7" t="str">
-        <f t="shared" ref="E194:E257" si="3">HYPERLINK(F194,A194)</f>
-        <v>S&amp;FHO - DRY'N AIR SCAN&amp;FIT OMNIA -HIGH</v>
-      </c>
-      <c r="F194" s="6" t="s">
+      <c r="E194" s="6" t="s">
         <v>604</v>
       </c>
       <c r="G194" s="3"/>
@@ -7241,23 +6460,19 @@
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="15" t="s">
         <v>413</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C195" s="11">
+      <c r="C195" s="9">
         <v>26.8</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E195" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S&amp;FLO - DRY'N AIR SCAN&amp;FIT OMNIA -LOW</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="E195" s="6" t="s">
         <v>605</v>
       </c>
       <c r="G195" s="3"/>
@@ -7266,23 +6481,19 @@
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="15" t="s">
         <v>415</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C196" s="11">
+      <c r="C196" s="9">
         <v>26.8</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E196" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S&amp;FMO - DRY'N AIR SCAN&amp;FIT OMNIA -MED</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="E196" s="6" t="s">
         <v>606</v>
       </c>
       <c r="G196" s="3"/>
@@ -7291,23 +6502,19 @@
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="15" t="s">
         <v>417</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C197" s="11">
+      <c r="C197" s="9">
         <v>26.8</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="E197" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S&amp;FHR - DRY'N AIR SCAN&amp;FIT RECORD -HIGH</v>
-      </c>
-      <c r="F197" s="6" t="s">
+      <c r="E197" s="6" t="s">
         <v>607</v>
       </c>
       <c r="G197" s="3"/>
@@ -7316,23 +6523,19 @@
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="15" t="s">
         <v>419</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C198" s="11">
+      <c r="C198" s="9">
         <v>26.8</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E198" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S&amp;FLR - DRY'N AIR SCAN&amp;FIT RECORD -LOW</v>
-      </c>
-      <c r="F198" s="6" t="s">
+      <c r="E198" s="6" t="s">
         <v>608</v>
       </c>
       <c r="G198" s="3"/>
@@ -7341,23 +6544,19 @@
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="15" t="s">
         <v>421</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C199" s="11">
+      <c r="C199" s="9">
         <v>26.8</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E199" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S&amp;FMR - DRY'N AIR SCAN&amp;FIT RECORD -MED</v>
-      </c>
-      <c r="F199" s="6" t="s">
+      <c r="E199" s="6" t="s">
         <v>609</v>
       </c>
       <c r="G199" s="3"/>
@@ -7366,23 +6565,19 @@
       <c r="J199" s="3"/>
     </row>
     <row r="200" spans="1:10">
-      <c r="A200" s="17" t="s">
+      <c r="A200" s="15" t="s">
         <v>423</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C200" s="11">
+      <c r="C200" s="9">
         <v>20.5</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E200" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6300 - PLANTARE DRY'N AIR RECORD - TESSUTO</v>
-      </c>
-      <c r="F200" s="6" t="s">
+      <c r="E200" s="6" t="s">
         <v>610</v>
       </c>
       <c r="G200" s="3"/>
@@ -7391,23 +6586,19 @@
       <c r="J200" s="3"/>
     </row>
     <row r="201" spans="1:10">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="15" t="s">
         <v>425</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C201" s="11">
+      <c r="C201" s="9">
         <v>20.5</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E201" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6303 - PLANTARE DRY'N AIR GEL WOMAN</v>
-      </c>
-      <c r="F201" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>611</v>
       </c>
       <c r="G201" s="3"/>
@@ -7416,46 +6607,38 @@
       <c r="J201" s="3"/>
     </row>
     <row r="202" spans="1:10">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="15" t="s">
         <v>427</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C202" s="11">
+      <c r="C202" s="9">
         <v>20.5</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E202" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6304 - PLANTARE DRY'N AIR GEL MAN</v>
-      </c>
-      <c r="F202" s="6"/>
+      <c r="E202" s="6"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
     <row r="203" spans="1:10">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="15" t="s">
         <v>427</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C203" s="11">
+      <c r="C203" s="9">
         <v>20.5</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E203" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6304 - PLANTARE DRY'N AIR GEL MAN</v>
-      </c>
-      <c r="F203" s="6" t="s">
+      <c r="E203" s="6" t="s">
         <v>612</v>
       </c>
       <c r="G203" s="3"/>
@@ -7464,23 +6647,19 @@
       <c r="J203" s="3"/>
     </row>
     <row r="204" spans="1:10">
-      <c r="A204" s="17" t="s">
+      <c r="A204" s="15" t="s">
         <v>429</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C204" s="11">
+      <c r="C204" s="9">
         <v>22.5</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E204" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6305 - PLANTARE DRY'N AIR RECORD ESD</v>
-      </c>
-      <c r="F204" s="6" t="s">
+      <c r="E204" s="6" t="s">
         <v>613</v>
       </c>
       <c r="G204" s="3"/>
@@ -7489,23 +6668,19 @@
       <c r="J204" s="3"/>
     </row>
     <row r="205" spans="1:10">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C205" s="21">
+      <c r="C205" s="19">
         <v>20.079999999999998</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E205" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6309- PLANTARE DRY'N AIR OMNIA ZERO</v>
-      </c>
-      <c r="F205" s="6" t="s">
+      <c r="E205" s="6" t="s">
         <v>614</v>
       </c>
       <c r="G205" s="3"/>
@@ -7514,69 +6689,57 @@
       <c r="J205" s="3"/>
     </row>
     <row r="206" spans="1:10">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="17" t="s">
         <v>433</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C206" s="12">
+      <c r="C206" s="10">
         <v>16.899999999999999</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E206" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6316 - PLANTARE DRY'N AIR COMFORT CUBE ESD</v>
-      </c>
-      <c r="F206" s="6"/>
+      <c r="E206" s="6"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
     <row r="207" spans="1:10">
-      <c r="A207" s="19" t="s">
+      <c r="A207" s="17" t="s">
         <v>435</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C207" s="21">
+      <c r="C207" s="19">
         <v>13.9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E207" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>B6317 - PLANTARE DRY'N AIR COMFORT+ ESD</v>
-      </c>
-      <c r="F207" s="6"/>
+      <c r="E207" s="6"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
     <row r="208" spans="1:10">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C208" s="11">
+      <c r="C208" s="9">
         <v>1.2</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E208" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>MJ-LC05A01-S25 - LACCIO  CM.100 NERO/ARANC.</v>
-      </c>
-      <c r="F208" s="6" t="s">
+      <c r="E208" s="6" t="s">
         <v>615</v>
       </c>
       <c r="G208" s="3"/>
@@ -7585,23 +6748,19 @@
       <c r="J208" s="3"/>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="17" t="s">
+      <c r="A209" s="15" t="s">
         <v>440</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C209" s="11">
+      <c r="C209" s="9">
         <v>1.2</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E209" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>MJ-LC05A01-S42 - LACCIO CM.120 NERO/ARANC.</v>
-      </c>
-      <c r="F209" s="6" t="s">
+      <c r="E209" s="6" t="s">
         <v>616</v>
       </c>
       <c r="G209" s="3"/>
@@ -7610,23 +6769,19 @@
       <c r="J209" s="3"/>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="15" t="s">
         <v>442</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C210" s="11">
+      <c r="C210" s="9">
         <v>44.3</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="E210" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>CL002 - CINTURA SUPPORTO LOMBARE</v>
-      </c>
-      <c r="F210" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>617</v>
       </c>
       <c r="G210" s="3"/>
@@ -25948,15 +25103,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
@@ -25970,6 +25116,15 @@
     <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26258,14 +25413,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5014D9-409A-43AD-83B1-4858560F7CE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26274,6 +25421,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
     <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Listino_agente.xlsx
+++ b/Listino_agente.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.cavallo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{D7CD0633-2011-7849-8088-96E9A1E5EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C485BE2-9E0D-4A4B-A112-0F8576855344}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671774A9-8DBE-45ED-9A74-211550B9F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9960" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="624">
   <si>
     <t>B1704A - BERLIN</t>
   </si>
@@ -1905,6 +1905,9 @@
   </si>
   <si>
     <t>LISTINO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1hJbsu5dJW30PvlTzw7g55wxgt3etyKOt</t>
   </si>
 </sst>
 </file>
@@ -2080,10 +2083,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2405,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9E130-BDA4-467E-8A1B-5EE4AD58BFA7}">
   <dimension ref="A1:J2690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E210"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6039,7 +6038,9 @@
       <c r="D174" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E174" s="6"/>
+      <c r="E174" s="6" t="s">
+        <v>623</v>
+      </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -25119,15 +25120,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8de4cfa398baf1d9935d13366250aa30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6332f520e18d59474426fc5504e0b9e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -25412,6 +25404,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5014D9-409A-43AD-83B1-4858560F7CE5}">
   <ds:schemaRefs>
@@ -25426,14 +25427,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E33ACC7-CE87-4B70-A091-FDB57C7E1EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25452,4 +25445,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Listino_agente.xlsx
+++ b/Listino_agente.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.cavallo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671774A9-8DBE-45ED-9A74-211550B9F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{671774A9-8DBE-45ED-9A74-211550B9F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEC763F-1FC3-47E9-8A06-50CC754136B3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="687">
   <si>
     <t>B1704A - BERLIN</t>
   </si>
@@ -1907,7 +1907,196 @@
     <t>LISTINO</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1hJbsu5dJW30PvlTzw7g55wxgt3etyKOt</t>
+    <t>S1PS ESD LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S1PS ESD LG FO SR</t>
+  </si>
+  <si>
+    <t>S3S ESD LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S3S ESD CI LG FO SR</t>
+  </si>
+  <si>
+    <t>S7S ESD LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S3S ESD LG FO SR</t>
+  </si>
+  <si>
+    <t>S3 HRO CI SRC</t>
+  </si>
+  <si>
+    <t>S1P HRO SRC</t>
+  </si>
+  <si>
+    <t>S3 HRO SRC</t>
+  </si>
+  <si>
+    <t>O1 FO SRC</t>
+  </si>
+  <si>
+    <t>S3 ESD SRC</t>
+  </si>
+  <si>
+    <t>O2 FO ESD SRC</t>
+  </si>
+  <si>
+    <t>O3 FO SRC</t>
+  </si>
+  <si>
+    <t>S3L HRO FO SR</t>
+  </si>
+  <si>
+    <t>S3S ESD HRO SC FO SR</t>
+  </si>
+  <si>
+    <t>S1PS ESD HRO SC FO SR</t>
+  </si>
+  <si>
+    <t>S3S ESD HRO CI FO SR</t>
+  </si>
+  <si>
+    <t>S1PS ESD HRO FO SR</t>
+  </si>
+  <si>
+    <t>S3S HRO CI HI LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S7S HRO CI HI LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S1PS ESD FO SR</t>
+  </si>
+  <si>
+    <t>S3S ESD FO SR</t>
+  </si>
+  <si>
+    <t>S3L FO SR</t>
+  </si>
+  <si>
+    <t>S1PS FO SR</t>
+  </si>
+  <si>
+    <t>S1PL FO SR</t>
+  </si>
+  <si>
+    <t>S3S FO SR</t>
+  </si>
+  <si>
+    <t>S3L ESD FO SR</t>
+  </si>
+  <si>
+    <t>S1P ESD SRC</t>
+  </si>
+  <si>
+    <t>S3 ESD CI SRC</t>
+  </si>
+  <si>
+    <t>S3S ESD CI FO SR</t>
+  </si>
+  <si>
+    <t>S3L HRO CI HI LG FO SR</t>
+  </si>
+  <si>
+    <t>S3 CI SRC</t>
+  </si>
+  <si>
+    <t>S3 SRC</t>
+  </si>
+  <si>
+    <t>S3L LG FO SR</t>
+  </si>
+  <si>
+    <t>S3 HRO CI HI SRC</t>
+  </si>
+  <si>
+    <t>S3 HRO SRA</t>
+  </si>
+  <si>
+    <t>S3L SC FO SR</t>
+  </si>
+  <si>
+    <t>S3 M SRC</t>
+  </si>
+  <si>
+    <t>S3 WR CI HI HRO SRC</t>
+  </si>
+  <si>
+    <t>S3S ESD M FO SR</t>
+  </si>
+  <si>
+    <t>S3L M HRO CI HI LG SC FO SR</t>
+  </si>
+  <si>
+    <t>SB E WPA PS CI FO SR</t>
+  </si>
+  <si>
+    <t>S3 CR HRO CI HI AN SRC</t>
+  </si>
+  <si>
+    <t>S7S LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S7S CI LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S1P SRC</t>
+  </si>
+  <si>
+    <t>SB FO E A SRC</t>
+  </si>
+  <si>
+    <t>S2 FO SR</t>
+  </si>
+  <si>
+    <t>S2 SRC</t>
+  </si>
+  <si>
+    <t>S1 FO SR</t>
+  </si>
+  <si>
+    <t>OB A E SRC</t>
+  </si>
+  <si>
+    <t>S2 CI FO SR</t>
+  </si>
+  <si>
+    <t>S2 ESD CI FO SR</t>
+  </si>
+  <si>
+    <t>S6 CI FO SR</t>
+  </si>
+  <si>
+    <t>S3 HRO HI SRA</t>
+  </si>
+  <si>
+    <t>S1 SRC</t>
+  </si>
+  <si>
+    <t>S1PL ESD FO SR</t>
+  </si>
+  <si>
+    <t>S1PS LG SC FO SR</t>
+  </si>
+  <si>
+    <t>O1 LG SC FO SR</t>
+  </si>
+  <si>
+    <t>S3S LG FO SR</t>
+  </si>
+  <si>
+    <t>S1PS LG FO SR</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/G29mm0Jy/CA_B0134_0WB_EUSTON.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1t433xcG/CA_B0136_0WA_MONTMARTRE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y9jCCcfN/CA_B0136_1WC_CADORNA.jpg</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +2108,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,###.00\€"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,6 +2166,10 @@
       <name val="Neo Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Neo Sans Pro"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1998,7 +2191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2021,13 +2214,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2066,6 +2274,7 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -2083,6 +2292,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2404,13 +2617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9E130-BDA4-467E-8A1B-5EE4AD58BFA7}">
   <dimension ref="A1:J2690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="11" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.21875" customWidth="1"/>
@@ -2455,6 +2669,9 @@
       <c r="E2" s="6" t="s">
         <v>445</v>
       </c>
+      <c r="F2" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2476,6 +2693,9 @@
       <c r="E3" s="6" t="s">
         <v>446</v>
       </c>
+      <c r="F3" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2497,6 +2717,9 @@
       <c r="E4" s="6" t="s">
         <v>447</v>
       </c>
+      <c r="F4" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2518,6 +2741,9 @@
       <c r="E5" s="6" t="s">
         <v>448</v>
       </c>
+      <c r="F5" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2539,6 +2765,9 @@
       <c r="E6" s="6" t="s">
         <v>449</v>
       </c>
+      <c r="F6" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2560,6 +2789,9 @@
       <c r="E7" s="6" t="s">
         <v>450</v>
       </c>
+      <c r="F7" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2581,6 +2813,9 @@
       <c r="E8" s="6" t="s">
         <v>451</v>
       </c>
+      <c r="F8" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -2600,6 +2835,9 @@
         <v>16</v>
       </c>
       <c r="E9" s="6"/>
+      <c r="F9" s="20" t="s">
+        <v>624</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -2621,6 +2859,9 @@
       <c r="E10" s="6" t="s">
         <v>452</v>
       </c>
+      <c r="F10" s="20" t="s">
+        <v>625</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2642,6 +2883,9 @@
       <c r="E11" s="6" t="s">
         <v>453</v>
       </c>
+      <c r="F11" s="20" t="s">
+        <v>624</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2663,6 +2907,9 @@
       <c r="E12" s="6" t="s">
         <v>454</v>
       </c>
+      <c r="F12" s="20" t="s">
+        <v>626</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2684,6 +2931,9 @@
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F13" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2705,6 +2955,9 @@
       <c r="E14" s="6" t="s">
         <v>455</v>
       </c>
+      <c r="F14" s="20" t="s">
+        <v>625</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2726,6 +2979,9 @@
       <c r="E15" s="6" t="s">
         <v>456</v>
       </c>
+      <c r="F15" s="20" t="s">
+        <v>626</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2747,6 +3003,9 @@
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="F16" s="20" t="s">
+        <v>627</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2768,6 +3027,9 @@
       <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F17" s="20" t="s">
+        <v>627</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -2789,6 +3051,9 @@
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F18" s="20" t="s">
+        <v>628</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2810,6 +3075,9 @@
       <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F19" s="20" t="s">
+        <v>628</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -2831,6 +3099,9 @@
       <c r="E20" s="6" t="s">
         <v>457</v>
       </c>
+      <c r="F20" s="20" t="s">
+        <v>629</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2852,6 +3123,9 @@
       <c r="E21" s="6" t="s">
         <v>458</v>
       </c>
+      <c r="F21" s="20" t="s">
+        <v>629</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2873,6 +3147,9 @@
       <c r="E22" s="6" t="s">
         <v>459</v>
       </c>
+      <c r="F22" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2894,6 +3171,9 @@
       <c r="E23" s="6" t="s">
         <v>460</v>
       </c>
+      <c r="F23" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -2915,6 +3195,9 @@
       <c r="E24" s="6" t="s">
         <v>461</v>
       </c>
+      <c r="F24" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2936,6 +3219,9 @@
       <c r="E25" s="6" t="s">
         <v>462</v>
       </c>
+      <c r="F25" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2957,6 +3243,9 @@
       <c r="E26" s="6" t="s">
         <v>463</v>
       </c>
+      <c r="F26" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2978,6 +3267,9 @@
       <c r="E27" s="6" t="s">
         <v>464</v>
       </c>
+      <c r="F27" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2999,6 +3291,9 @@
       <c r="E28" s="6" t="s">
         <v>465</v>
       </c>
+      <c r="F28" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3020,6 +3315,9 @@
       <c r="E29" s="6" t="s">
         <v>466</v>
       </c>
+      <c r="F29" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3041,6 +3339,9 @@
       <c r="E30" s="6" t="s">
         <v>467</v>
       </c>
+      <c r="F30" s="20" t="s">
+        <v>631</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3062,6 +3363,9 @@
       <c r="E31" s="6" t="s">
         <v>468</v>
       </c>
+      <c r="F31" s="20" t="s">
+        <v>632</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3083,6 +3387,9 @@
       <c r="E32" s="6" t="s">
         <v>469</v>
       </c>
+      <c r="F32" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -3104,6 +3411,9 @@
       <c r="E33" s="6" t="s">
         <v>470</v>
       </c>
+      <c r="F33" s="20" t="s">
+        <v>634</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -3125,6 +3435,9 @@
       <c r="E34" s="6" t="s">
         <v>471</v>
       </c>
+      <c r="F34" s="20" t="s">
+        <v>635</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3146,6 +3459,9 @@
       <c r="E35" s="6" t="s">
         <v>472</v>
       </c>
+      <c r="F35" s="20" t="s">
+        <v>636</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3167,6 +3483,9 @@
       <c r="E36" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="F36" s="20" t="s">
+        <v>637</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3188,6 +3507,9 @@
       <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="F37" s="20" t="s">
+        <v>638</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3209,6 +3531,9 @@
       <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="F38" s="20" t="s">
+        <v>638</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -3228,6 +3553,9 @@
         <v>85</v>
       </c>
       <c r="E39" s="2"/>
+      <c r="F39" s="20" t="s">
+        <v>639</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3247,6 +3575,9 @@
         <v>87</v>
       </c>
       <c r="E40" s="2"/>
+      <c r="F40" s="20" t="s">
+        <v>640</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -3266,6 +3597,9 @@
         <v>89</v>
       </c>
       <c r="E41" s="2"/>
+      <c r="F41" s="20" t="s">
+        <v>637</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3287,6 +3621,9 @@
       <c r="E42" s="6" t="s">
         <v>473</v>
       </c>
+      <c r="F42" s="20" t="s">
+        <v>641</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -3308,6 +3645,9 @@
       <c r="E43" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="F43" s="20" t="s">
+        <v>641</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -3329,6 +3669,9 @@
       <c r="E44" s="6" t="s">
         <v>475</v>
       </c>
+      <c r="F44" s="20" t="s">
+        <v>642</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -3350,6 +3693,9 @@
       <c r="E45" s="2">
         <v>0</v>
       </c>
+      <c r="F45" s="20" t="s">
+        <v>642</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -3371,6 +3717,9 @@
       <c r="E46" s="6" t="s">
         <v>476</v>
       </c>
+      <c r="F46" s="20" t="s">
+        <v>642</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -3392,6 +3741,9 @@
       <c r="E47" s="6" t="s">
         <v>476</v>
       </c>
+      <c r="F47" s="20" t="s">
+        <v>641</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -3413,6 +3765,9 @@
       <c r="E48" s="6" t="s">
         <v>477</v>
       </c>
+      <c r="F48" s="20" t="s">
+        <v>641</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -3434,6 +3789,9 @@
       <c r="E49" s="6" t="s">
         <v>478</v>
       </c>
+      <c r="F49" s="20" t="s">
+        <v>641</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -3455,6 +3813,9 @@
       <c r="E50" s="6" t="s">
         <v>479</v>
       </c>
+      <c r="F50" s="20" t="s">
+        <v>642</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -3476,6 +3837,9 @@
       <c r="E51" s="6" t="s">
         <v>480</v>
       </c>
+      <c r="F51" s="20" t="s">
+        <v>643</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3497,6 +3861,9 @@
       <c r="E52" s="6" t="s">
         <v>481</v>
       </c>
+      <c r="F52" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -3518,6 +3885,9 @@
       <c r="E53" s="6" t="s">
         <v>482</v>
       </c>
+      <c r="F53" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -3539,6 +3909,9 @@
       <c r="E54" s="6" t="s">
         <v>483</v>
       </c>
+      <c r="F54" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -3560,6 +3933,9 @@
       <c r="E55" s="6" t="s">
         <v>484</v>
       </c>
+      <c r="F55" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -3581,6 +3957,9 @@
       <c r="E56" s="6" t="s">
         <v>485</v>
       </c>
+      <c r="F56" s="20" t="s">
+        <v>643</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -3602,6 +3981,9 @@
       <c r="E57" s="6" t="s">
         <v>486</v>
       </c>
+      <c r="F57" s="20" t="s">
+        <v>646</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -3623,6 +4005,9 @@
       <c r="E58" s="6" t="s">
         <v>487</v>
       </c>
+      <c r="F58" s="20" t="s">
+        <v>646</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -3644,6 +4029,9 @@
       <c r="E59" s="6" t="s">
         <v>488</v>
       </c>
+      <c r="F59" s="20" t="s">
+        <v>643</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -3665,6 +4053,9 @@
       <c r="E60" s="6" t="s">
         <v>489</v>
       </c>
+      <c r="F60" s="20" t="s">
+        <v>643</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -3686,6 +4077,9 @@
       <c r="E61" s="6" t="s">
         <v>490</v>
       </c>
+      <c r="F61" s="20" t="s">
+        <v>646</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -3707,6 +4101,9 @@
       <c r="E62" s="6" t="s">
         <v>491</v>
       </c>
+      <c r="F62" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -3728,6 +4125,9 @@
       <c r="E63" s="6" t="s">
         <v>492</v>
       </c>
+      <c r="F63" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -3749,6 +4149,9 @@
       <c r="E64" s="6" t="s">
         <v>493</v>
       </c>
+      <c r="F64" s="20" t="s">
+        <v>648</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -3770,6 +4173,9 @@
       <c r="E65" s="6" t="s">
         <v>494</v>
       </c>
+      <c r="F65" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -3791,6 +4197,9 @@
       <c r="E66" s="6" t="s">
         <v>495</v>
       </c>
+      <c r="F66" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -3812,6 +4221,9 @@
       <c r="E67" s="6" t="s">
         <v>496</v>
       </c>
+      <c r="F67" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -3833,6 +4245,9 @@
       <c r="E68" s="6" t="s">
         <v>497</v>
       </c>
+      <c r="F68" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -3854,6 +4269,9 @@
       <c r="E69" s="6" t="s">
         <v>498</v>
       </c>
+      <c r="F69" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -3875,6 +4293,9 @@
       <c r="E70" s="6" t="s">
         <v>499</v>
       </c>
+      <c r="F70" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -3896,6 +4317,9 @@
       <c r="E71" s="6" t="s">
         <v>500</v>
       </c>
+      <c r="F71" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -3917,6 +4341,9 @@
       <c r="E72" s="6" t="s">
         <v>501</v>
       </c>
+      <c r="F72" s="20" t="s">
+        <v>652</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -3938,6 +4365,9 @@
       <c r="E73" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="F73" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -3959,6 +4389,9 @@
       <c r="E74" s="6" t="s">
         <v>502</v>
       </c>
+      <c r="F74" s="20" t="s">
+        <v>652</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -3980,6 +4413,9 @@
       <c r="E75" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="F75" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -4001,6 +4437,9 @@
       <c r="E76" s="6" t="s">
         <v>503</v>
       </c>
+      <c r="F76" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -4022,6 +4461,9 @@
       <c r="E77" s="6" t="s">
         <v>504</v>
       </c>
+      <c r="F77" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -4043,6 +4485,9 @@
       <c r="E78" s="6" t="s">
         <v>505</v>
       </c>
+      <c r="F78" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -4064,6 +4509,9 @@
       <c r="E79" s="6" t="s">
         <v>506</v>
       </c>
+      <c r="F79" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -4085,6 +4533,9 @@
       <c r="E80" s="6" t="s">
         <v>507</v>
       </c>
+      <c r="F80" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -4106,6 +4557,9 @@
       <c r="E81" s="6" t="s">
         <v>508</v>
       </c>
+      <c r="F81" s="20" t="s">
+        <v>653</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -4127,6 +4581,9 @@
       <c r="E82" s="6" t="s">
         <v>509</v>
       </c>
+      <c r="F82" s="20" t="s">
+        <v>653</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4148,6 +4605,9 @@
       <c r="E83" s="6" t="s">
         <v>510</v>
       </c>
+      <c r="F83" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4169,6 +4629,9 @@
       <c r="E84" s="6" t="s">
         <v>511</v>
       </c>
+      <c r="F84" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4190,6 +4653,9 @@
       <c r="E85" s="6" t="s">
         <v>512</v>
       </c>
+      <c r="F85" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -4211,6 +4677,9 @@
       <c r="E86" s="6" t="s">
         <v>513</v>
       </c>
+      <c r="F86" s="20" t="s">
+        <v>656</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -4232,6 +4701,9 @@
       <c r="E87" s="6" t="s">
         <v>514</v>
       </c>
+      <c r="F87" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4253,6 +4725,9 @@
       <c r="E88" s="6" t="s">
         <v>515</v>
       </c>
+      <c r="F88" s="20" t="s">
+        <v>656</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4274,6 +4749,9 @@
       <c r="E89" s="6" t="s">
         <v>516</v>
       </c>
+      <c r="F89" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4295,6 +4773,9 @@
       <c r="E90" s="6" t="s">
         <v>517</v>
       </c>
+      <c r="F90" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4316,6 +4797,9 @@
       <c r="E91" s="6" t="s">
         <v>518</v>
       </c>
+      <c r="F91" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4337,6 +4821,9 @@
       <c r="E92" s="6" t="s">
         <v>519</v>
       </c>
+      <c r="F92" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4358,6 +4845,9 @@
       <c r="E93" s="6" t="s">
         <v>520</v>
       </c>
+      <c r="F93" s="20" t="s">
+        <v>657</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4379,6 +4869,9 @@
       <c r="E94" s="6" t="s">
         <v>521</v>
       </c>
+      <c r="F94" s="20" t="s">
+        <v>657</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4400,6 +4893,9 @@
       <c r="E95" s="6" t="s">
         <v>522</v>
       </c>
+      <c r="F95" s="20" t="s">
+        <v>657</v>
+      </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -4421,6 +4917,9 @@
       <c r="E96" s="6" t="s">
         <v>523</v>
       </c>
+      <c r="F96" s="20" t="s">
+        <v>658</v>
+      </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -4442,6 +4941,9 @@
       <c r="E97" s="6" t="s">
         <v>524</v>
       </c>
+      <c r="F97" s="20" t="s">
+        <v>659</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -4463,6 +4965,9 @@
       <c r="E98" s="6" t="s">
         <v>525</v>
       </c>
+      <c r="F98" s="20" t="s">
+        <v>660</v>
+      </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -4484,6 +4989,9 @@
       <c r="E99" s="6" t="s">
         <v>526</v>
       </c>
+      <c r="F99" s="20" t="s">
+        <v>661</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -4505,6 +5013,9 @@
       <c r="E100" s="6" t="s">
         <v>527</v>
       </c>
+      <c r="F100" s="20" t="s">
+        <v>662</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -4526,6 +5037,9 @@
       <c r="E101" s="2">
         <v>0</v>
       </c>
+      <c r="F101" s="20" t="s">
+        <v>662</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -4545,6 +5059,9 @@
         <v>219</v>
       </c>
       <c r="E102" s="6"/>
+      <c r="F102" s="20" t="s">
+        <v>663</v>
+      </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -4566,6 +5083,9 @@
       <c r="E103" s="2">
         <v>0</v>
       </c>
+      <c r="F103" s="20" t="s">
+        <v>664</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -4587,6 +5107,9 @@
       <c r="E104" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="F104" s="20" t="s">
+        <v>664</v>
+      </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -4608,6 +5131,9 @@
       <c r="E105" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="F105" s="20" t="s">
+        <v>657</v>
+      </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -4629,6 +5155,9 @@
       <c r="E106" s="6" t="s">
         <v>528</v>
       </c>
+      <c r="F106" s="20" t="s">
+        <v>665</v>
+      </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -4650,6 +5179,9 @@
       <c r="E107" s="6" t="s">
         <v>529</v>
       </c>
+      <c r="F107" s="20" t="s">
+        <v>661</v>
+      </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -4671,6 +5203,9 @@
       <c r="E108" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="F108" s="20" t="s">
+        <v>661</v>
+      </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -4692,6 +5227,9 @@
       <c r="E109" s="6" t="s">
         <v>531</v>
       </c>
+      <c r="F109" s="20" t="s">
+        <v>661</v>
+      </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -4713,6 +5251,9 @@
       <c r="E110" s="6" t="s">
         <v>532</v>
       </c>
+      <c r="F110" s="20" t="s">
+        <v>666</v>
+      </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -4734,6 +5275,9 @@
       <c r="E111" s="6" t="s">
         <v>533</v>
       </c>
+      <c r="F111" s="20" t="s">
+        <v>667</v>
+      </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -4755,6 +5299,9 @@
       <c r="E112" s="6" t="s">
         <v>534</v>
       </c>
+      <c r="F112" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -4776,6 +5323,9 @@
       <c r="E113" s="6" t="s">
         <v>535</v>
       </c>
+      <c r="F113" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -4797,6 +5347,9 @@
       <c r="E114" s="6" t="s">
         <v>536</v>
       </c>
+      <c r="F114" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -4818,6 +5371,9 @@
       <c r="E115" s="6" t="s">
         <v>537</v>
       </c>
+      <c r="F115" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -4839,6 +5395,9 @@
       <c r="E116" s="6" t="s">
         <v>538</v>
       </c>
+      <c r="F116" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -4860,6 +5419,9 @@
       <c r="E117" s="6" t="s">
         <v>539</v>
       </c>
+      <c r="F117" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -4881,6 +5443,9 @@
       <c r="E118" s="6" t="s">
         <v>540</v>
       </c>
+      <c r="F118" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -4902,6 +5467,9 @@
       <c r="E119" s="6" t="s">
         <v>541</v>
       </c>
+      <c r="F119" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -4923,6 +5491,9 @@
       <c r="E120" s="6" t="s">
         <v>542</v>
       </c>
+      <c r="F120" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -4944,6 +5515,9 @@
       <c r="E121" s="6" t="s">
         <v>543</v>
       </c>
+      <c r="F121" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -4965,6 +5539,9 @@
       <c r="E122" s="6" t="s">
         <v>544</v>
       </c>
+      <c r="F122" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -4986,6 +5563,9 @@
       <c r="E123" s="6" t="s">
         <v>545</v>
       </c>
+      <c r="F123" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -5007,6 +5587,9 @@
       <c r="E124" s="6" t="s">
         <v>546</v>
       </c>
+      <c r="F124" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -5028,6 +5611,9 @@
       <c r="E125" s="6" t="s">
         <v>547</v>
       </c>
+      <c r="F125" s="20" t="s">
+        <v>669</v>
+      </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -5049,6 +5635,9 @@
       <c r="E126" s="6" t="s">
         <v>548</v>
       </c>
+      <c r="F126" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -5070,6 +5659,9 @@
       <c r="E127" s="6" t="s">
         <v>549</v>
       </c>
+      <c r="F127" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -5091,6 +5683,9 @@
       <c r="E128" s="6" t="s">
         <v>550</v>
       </c>
+      <c r="F128" s="20" t="s">
+        <v>671</v>
+      </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -5112,6 +5707,9 @@
       <c r="E129" s="6" t="s">
         <v>551</v>
       </c>
+      <c r="F129" s="20" t="s">
+        <v>672</v>
+      </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -5133,6 +5731,9 @@
       <c r="E130" s="6" t="s">
         <v>552</v>
       </c>
+      <c r="F130" s="20" t="s">
+        <v>671</v>
+      </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -5154,6 +5755,9 @@
       <c r="E131" s="6" t="s">
         <v>553</v>
       </c>
+      <c r="F131" s="20" t="s">
+        <v>671</v>
+      </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -5175,6 +5779,9 @@
       <c r="E132" s="6" t="s">
         <v>554</v>
       </c>
+      <c r="F132" s="20" t="s">
+        <v>671</v>
+      </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -5196,6 +5803,9 @@
       <c r="E133" s="6" t="s">
         <v>555</v>
       </c>
+      <c r="F133" s="20" t="s">
+        <v>673</v>
+      </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -5217,6 +5827,9 @@
       <c r="E134" s="6" t="s">
         <v>556</v>
       </c>
+      <c r="F134" s="20" t="s">
+        <v>673</v>
+      </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -5238,6 +5851,9 @@
       <c r="E135" s="6" t="s">
         <v>557</v>
       </c>
+      <c r="F135" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -5259,6 +5875,9 @@
       <c r="E136" s="6" t="s">
         <v>558</v>
       </c>
+      <c r="F136" s="20" t="s">
+        <v>643</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -5280,6 +5899,9 @@
       <c r="E137" s="6" t="s">
         <v>559</v>
       </c>
+      <c r="F137" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -5301,6 +5923,9 @@
       <c r="E138" s="6" t="s">
         <v>560</v>
       </c>
+      <c r="F138" s="20" t="s">
+        <v>674</v>
+      </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -5322,6 +5947,9 @@
       <c r="E139" s="6" t="s">
         <v>561</v>
       </c>
+      <c r="F139" s="20" t="s">
+        <v>674</v>
+      </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -5341,6 +5969,9 @@
         <v>299</v>
       </c>
       <c r="E140" s="6"/>
+      <c r="F140" s="20" t="s">
+        <v>675</v>
+      </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -5362,6 +5993,9 @@
       <c r="E141" s="6" t="s">
         <v>562</v>
       </c>
+      <c r="F141" s="20" t="s">
+        <v>674</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -5381,6 +6015,9 @@
         <v>303</v>
       </c>
       <c r="E142" s="6"/>
+      <c r="F142" s="20" t="s">
+        <v>675</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -5402,6 +6039,9 @@
       <c r="E143" s="6" t="s">
         <v>563</v>
       </c>
+      <c r="F143" s="20" t="s">
+        <v>671</v>
+      </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -5423,6 +6063,9 @@
       <c r="E144" s="6" t="s">
         <v>564</v>
       </c>
+      <c r="F144" s="20" t="s">
+        <v>671</v>
+      </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -5444,6 +6087,9 @@
       <c r="E145" s="6" t="s">
         <v>565</v>
       </c>
+      <c r="F145" s="20" t="s">
+        <v>676</v>
+      </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -5465,6 +6111,9 @@
       <c r="E146" s="6" t="s">
         <v>566</v>
       </c>
+      <c r="F146" s="20" t="s">
+        <v>676</v>
+      </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -5486,6 +6135,9 @@
       <c r="E147" s="6" t="s">
         <v>567</v>
       </c>
+      <c r="F147" s="20" t="s">
+        <v>677</v>
+      </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -5507,6 +6159,9 @@
       <c r="E148" s="6" t="s">
         <v>568</v>
       </c>
+      <c r="F148" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -5528,6 +6183,9 @@
       <c r="E149" s="6" t="s">
         <v>569</v>
       </c>
+      <c r="F149" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -5549,6 +6207,9 @@
       <c r="E150" s="6" t="s">
         <v>570</v>
       </c>
+      <c r="F150" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -5570,6 +6231,9 @@
       <c r="E151" s="6" t="s">
         <v>571</v>
       </c>
+      <c r="F151" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -5591,6 +6255,9 @@
       <c r="E152" s="6" t="s">
         <v>572</v>
       </c>
+      <c r="F152" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -5612,6 +6279,9 @@
       <c r="E153" s="6" t="s">
         <v>573</v>
       </c>
+      <c r="F153" s="20" t="s">
+        <v>678</v>
+      </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -5633,6 +6303,9 @@
       <c r="E154" s="6" t="s">
         <v>574</v>
       </c>
+      <c r="F154" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -5652,6 +6325,9 @@
         <v>332</v>
       </c>
       <c r="E155" s="6"/>
+      <c r="F155" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -5673,6 +6349,9 @@
       <c r="E156" s="6" t="s">
         <v>575</v>
       </c>
+      <c r="F156" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -5694,6 +6373,9 @@
       <c r="E157" s="6" t="s">
         <v>576</v>
       </c>
+      <c r="F157" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -5715,6 +6397,9 @@
       <c r="E158" s="6" t="s">
         <v>577</v>
       </c>
+      <c r="F158" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -5736,6 +6421,9 @@
       <c r="E159" s="6" t="s">
         <v>578</v>
       </c>
+      <c r="F159" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -5757,6 +6445,9 @@
       <c r="E160" s="6" t="s">
         <v>579</v>
       </c>
+      <c r="F160" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -5778,6 +6469,9 @@
       <c r="E161" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="F161" s="20" t="s">
+        <v>679</v>
+      </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -5799,6 +6493,9 @@
       <c r="E162" s="6" t="s">
         <v>581</v>
       </c>
+      <c r="F162" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -5820,6 +6517,9 @@
       <c r="E163" s="6" t="s">
         <v>582</v>
       </c>
+      <c r="F163" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -5841,6 +6541,9 @@
       <c r="E164" s="6" t="s">
         <v>583</v>
       </c>
+      <c r="F164" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -5862,6 +6565,9 @@
       <c r="E165" s="6" t="s">
         <v>584</v>
       </c>
+      <c r="F165" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -5883,6 +6589,9 @@
       <c r="E166" s="6" t="s">
         <v>585</v>
       </c>
+      <c r="F166" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -5904,6 +6613,9 @@
       <c r="E167" s="6" t="s">
         <v>586</v>
       </c>
+      <c r="F167" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -5925,6 +6637,9 @@
       <c r="E168" s="6" t="s">
         <v>587</v>
       </c>
+      <c r="F168" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -5944,6 +6659,9 @@
         <v>360</v>
       </c>
       <c r="E169" s="6"/>
+      <c r="F169" s="20" t="s">
+        <v>680</v>
+      </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -5962,7 +6680,12 @@
       <c r="D170" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E170" s="6"/>
+      <c r="E170" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F170" s="20" t="s">
+        <v>680</v>
+      </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -5982,6 +6705,9 @@
         <v>364</v>
       </c>
       <c r="E171" s="6"/>
+      <c r="F171" s="20" t="s">
+        <v>681</v>
+      </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -6000,7 +6726,12 @@
       <c r="D172" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E172" s="6"/>
+      <c r="E172" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="F172" s="20" t="s">
+        <v>682</v>
+      </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -6020,6 +6751,9 @@
         <v>368</v>
       </c>
       <c r="E173" s="6"/>
+      <c r="F173" s="20" t="s">
+        <v>683</v>
+      </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -6039,7 +6773,10 @@
         <v>370</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>623</v>
+        <v>686</v>
+      </c>
+      <c r="F174" s="20" t="s">
+        <v>683</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -6060,6 +6797,9 @@
         <v>372</v>
       </c>
       <c r="E175" s="6"/>
+      <c r="F175" s="20" t="s">
+        <v>682</v>
+      </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -6079,6 +6819,9 @@
         <v>374</v>
       </c>
       <c r="E176" s="6"/>
+      <c r="F176" s="20" t="s">
+        <v>683</v>
+      </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -6098,6 +6841,9 @@
         <v>376</v>
       </c>
       <c r="E177" s="6"/>
+      <c r="F177" s="20" t="s">
+        <v>683</v>
+      </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -6119,6 +6865,9 @@
       <c r="E178" s="6" t="s">
         <v>588</v>
       </c>
+      <c r="F178" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -6140,6 +6889,9 @@
       <c r="E179" s="6" t="s">
         <v>589</v>
       </c>
+      <c r="F179" s="20" t="s">
+        <v>682</v>
+      </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -6161,6 +6913,9 @@
       <c r="E180" s="6" t="s">
         <v>590</v>
       </c>
+      <c r="F180" s="20" t="s">
+        <v>682</v>
+      </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -6182,6 +6937,9 @@
       <c r="E181" s="6" t="s">
         <v>591</v>
       </c>
+      <c r="F181" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -6203,6 +6961,9 @@
       <c r="E182" s="6" t="s">
         <v>592</v>
       </c>
+      <c r="F182" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -6224,6 +6985,9 @@
       <c r="E183" s="6" t="s">
         <v>593</v>
       </c>
+      <c r="F183" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -6245,6 +7009,9 @@
       <c r="E184" s="6" t="s">
         <v>594</v>
       </c>
+      <c r="F184" s="20" t="s">
+        <v>678</v>
+      </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -6266,6 +7033,9 @@
       <c r="E185" s="6" t="s">
         <v>595</v>
       </c>
+      <c r="F185" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -6287,6 +7057,9 @@
       <c r="E186" s="6" t="s">
         <v>596</v>
       </c>
+      <c r="F186" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -6308,6 +7081,9 @@
       <c r="E187" s="6" t="s">
         <v>597</v>
       </c>
+      <c r="F187" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
@@ -6329,6 +7105,9 @@
       <c r="E188" s="6" t="s">
         <v>598</v>
       </c>
+      <c r="F188" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -6350,6 +7129,9 @@
       <c r="E189" s="6" t="s">
         <v>599</v>
       </c>
+      <c r="F189" s="20" t="s">
+        <v>655</v>
+      </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
@@ -6371,6 +7153,9 @@
       <c r="E190" s="6" t="s">
         <v>600</v>
       </c>
+      <c r="F190" s="20" t="s">
+        <v>683</v>
+      </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -6392,6 +7177,9 @@
       <c r="E191" s="6" t="s">
         <v>601</v>
       </c>
+      <c r="F191" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
@@ -6413,6 +7201,9 @@
       <c r="E192" s="6" t="s">
         <v>602</v>
       </c>
+      <c r="F192" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -6433,6 +7224,9 @@
       </c>
       <c r="E193" s="6" t="s">
         <v>603</v>
+      </c>
+      <c r="F193" s="20" t="s">
+        <v>645</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>

--- a/Listino_agente.xlsx
+++ b/Listino_agente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{671774A9-8DBE-45ED-9A74-211550B9F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEC763F-1FC3-47E9-8A06-50CC754136B3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{671774A9-8DBE-45ED-9A74-211550B9F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B5341F-B7AD-40FE-995F-DDCAEAFFBAE4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="695">
   <si>
     <t>B1704A - BERLIN</t>
   </si>
@@ -2097,6 +2097,30 @@
   </si>
   <si>
     <t>https://i.postimg.cc/Y9jCCcfN/CA_B0136_1WC_CADORNA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sxGpPQnV/CA_B1233_0WA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d3Z8Rk5b/CA_B0858_0WA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wMRh5yWg/CA_B1049_0WA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/T15rjLk3/CA_B1049_1WB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sxng2wPX/CA_B0904_0WA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/T3NNcm0K/CA_B0134_0WA_LUMIAR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rwZZ9Wjx/CA_B0134_1WC_BARISTA.png</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Dwppcs68/CA_B0136_1WB_ARENAL.jpg</t>
   </si>
 </sst>
 </file>
@@ -2617,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9E130-BDA4-467E-8A1B-5EE4AD58BFA7}">
   <dimension ref="A1:J2690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3552,7 +3576,9 @@
       <c r="D39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="F39" s="20" t="s">
         <v>639</v>
       </c>
@@ -3574,7 +3600,9 @@
       <c r="D40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="F40" s="20" t="s">
         <v>640</v>
       </c>
@@ -3596,7 +3624,9 @@
       <c r="D41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="F41" s="20" t="s">
         <v>637</v>
       </c>
@@ -5034,8 +5064,8 @@
       <c r="D101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="2">
-        <v>0</v>
+      <c r="E101" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="F101" s="20" t="s">
         <v>662</v>
@@ -5080,8 +5110,8 @@
       <c r="D103" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E103" s="2">
-        <v>0</v>
+      <c r="E103" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="F103" s="20" t="s">
         <v>664</v>
@@ -5968,7 +5998,9 @@
       <c r="D140" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E140" s="6"/>
+      <c r="E140" s="6" t="s">
+        <v>560</v>
+      </c>
       <c r="F140" s="20" t="s">
         <v>675</v>
       </c>
@@ -6014,7 +6046,9 @@
       <c r="D142" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>562</v>
+      </c>
       <c r="F142" s="20" t="s">
         <v>675</v>
       </c>
@@ -6324,7 +6358,9 @@
       <c r="D155" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E155" s="6"/>
+      <c r="E155" s="6" t="s">
+        <v>691</v>
+      </c>
       <c r="F155" s="20" t="s">
         <v>645</v>
       </c>
@@ -6658,7 +6694,9 @@
       <c r="D169" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E169" s="6"/>
+      <c r="E169" s="6" t="s">
+        <v>692</v>
+      </c>
       <c r="F169" s="20" t="s">
         <v>680</v>
       </c>
@@ -6704,7 +6742,9 @@
       <c r="D171" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E171" s="6"/>
+      <c r="E171" s="6" t="s">
+        <v>693</v>
+      </c>
       <c r="F171" s="20" t="s">
         <v>681</v>
       </c>
@@ -6750,7 +6790,9 @@
       <c r="D173" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E173" s="6"/>
+      <c r="E173" s="6" t="s">
+        <v>694</v>
+      </c>
       <c r="F173" s="20" t="s">
         <v>683</v>
       </c>
@@ -25914,6 +25956,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8de4cfa398baf1d9935d13366250aa30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6332f520e18d59474426fc5504e0b9e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -26198,15 +26249,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5014D9-409A-43AD-83B1-4858560F7CE5}">
   <ds:schemaRefs>
@@ -26221,6 +26263,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E33ACC7-CE87-4B70-A091-FDB57C7E1EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26239,12 +26289,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Listino_agente.xlsx
+++ b/Listino_agente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.cavallo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{671774A9-8DBE-45ED-9A74-211550B9F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B5341F-B7AD-40FE-995F-DDCAEAFFBAE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846CB25-F87E-44AC-89B0-EEC229D78830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
   </bookViews>
@@ -2316,10 +2316,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2642,7 +2638,7 @@
   <dimension ref="A1:J2690"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2952,7 +2948,7 @@
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="20" t="s">
@@ -3024,7 +3020,7 @@
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -3048,7 +3044,7 @@
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -3072,7 +3068,7 @@
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -3096,7 +3092,7 @@
       <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="20" t="s">
@@ -3504,7 +3500,7 @@
       <c r="D36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -3528,7 +3524,7 @@
       <c r="D37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -3552,7 +3548,7 @@
       <c r="D38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="20" t="s">
@@ -3576,7 +3572,7 @@
       <c r="D39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="6" t="s">
         <v>689</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -3600,7 +3596,7 @@
       <c r="D40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="6" t="s">
         <v>690</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -3624,7 +3620,7 @@
       <c r="D41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="6" t="s">
         <v>690</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -3720,7 +3716,7 @@
       <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="20" t="s">
@@ -4392,7 +4388,7 @@
       <c r="D73" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F73" s="20" t="s">
@@ -4440,7 +4436,7 @@
       <c r="D75" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="6" t="s">
         <v>162</v>
       </c>
       <c r="F75" s="20" t="s">
@@ -5064,7 +5060,7 @@
       <c r="D101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="6" t="s">
         <v>687</v>
       </c>
       <c r="F101" s="20" t="s">
@@ -5110,7 +5106,7 @@
       <c r="D103" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="6" t="s">
         <v>688</v>
       </c>
       <c r="F103" s="20" t="s">
@@ -5134,7 +5130,7 @@
       <c r="D104" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="6" t="s">
         <v>224</v>
       </c>
       <c r="F104" s="20" t="s">
@@ -5158,7 +5154,7 @@
       <c r="D105" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="6" t="s">
         <v>227</v>
       </c>
       <c r="F105" s="20" t="s">
@@ -7628,6 +7624,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="C211"/>
+      <c r="E211" s="6"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -7635,6 +7632,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="C212"/>
+      <c r="E212" s="6"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -7642,6 +7640,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="C213"/>
+      <c r="E213" s="6"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -7649,6 +7648,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="C214"/>
+      <c r="E214" s="6"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -7656,6 +7656,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="C215"/>
+      <c r="E215" s="6"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -7663,6 +7664,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="C216"/>
+      <c r="E216" s="6"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -7670,6 +7672,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="C217"/>
+      <c r="E217" s="6"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
@@ -7677,6 +7680,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="C218"/>
+      <c r="E218" s="6"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
@@ -7684,6 +7688,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="C219"/>
+      <c r="E219" s="6"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
@@ -7691,6 +7696,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="C220"/>
+      <c r="E220" s="6"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -7698,6 +7704,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="C221"/>
+      <c r="E221" s="6"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
@@ -7705,6 +7712,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="C222"/>
+      <c r="E222" s="6"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -7712,6 +7720,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="C223"/>
+      <c r="E223" s="6"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -7719,6 +7728,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="C224"/>
+      <c r="E224" s="6"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -7726,6 +7736,7 @@
     </row>
     <row r="225" spans="3:10">
       <c r="C225"/>
+      <c r="E225" s="6"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -7733,6 +7744,7 @@
     </row>
     <row r="226" spans="3:10">
       <c r="C226"/>
+      <c r="E226" s="6"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -7740,6 +7752,7 @@
     </row>
     <row r="227" spans="3:10">
       <c r="C227"/>
+      <c r="E227" s="6"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -7747,6 +7760,7 @@
     </row>
     <row r="228" spans="3:10">
       <c r="C228"/>
+      <c r="E228" s="6"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -7754,6 +7768,7 @@
     </row>
     <row r="229" spans="3:10">
       <c r="C229"/>
+      <c r="E229" s="6"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -7761,6 +7776,7 @@
     </row>
     <row r="230" spans="3:10">
       <c r="C230"/>
+      <c r="E230" s="6"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -7768,6 +7784,7 @@
     </row>
     <row r="231" spans="3:10">
       <c r="C231"/>
+      <c r="E231" s="6"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
@@ -7775,6 +7792,7 @@
     </row>
     <row r="232" spans="3:10">
       <c r="C232"/>
+      <c r="E232" s="6"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -7782,6 +7800,7 @@
     </row>
     <row r="233" spans="3:10">
       <c r="C233"/>
+      <c r="E233" s="6"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
@@ -7789,6 +7808,7 @@
     </row>
     <row r="234" spans="3:10">
       <c r="C234"/>
+      <c r="E234" s="6"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -7796,6 +7816,7 @@
     </row>
     <row r="235" spans="3:10">
       <c r="C235"/>
+      <c r="E235" s="6"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
@@ -7803,6 +7824,7 @@
     </row>
     <row r="236" spans="3:10">
       <c r="C236"/>
+      <c r="E236" s="6"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -7810,6 +7832,7 @@
     </row>
     <row r="237" spans="3:10">
       <c r="C237"/>
+      <c r="E237" s="6"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
@@ -7817,6 +7840,7 @@
     </row>
     <row r="238" spans="3:10">
       <c r="C238"/>
+      <c r="E238" s="6"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -7824,6 +7848,7 @@
     </row>
     <row r="239" spans="3:10">
       <c r="C239"/>
+      <c r="E239" s="6"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
@@ -7831,6 +7856,7 @@
     </row>
     <row r="240" spans="3:10">
       <c r="C240"/>
+      <c r="E240" s="6"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -7838,6 +7864,7 @@
     </row>
     <row r="241" spans="3:10">
       <c r="C241"/>
+      <c r="E241" s="6"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -7845,6 +7872,7 @@
     </row>
     <row r="242" spans="3:10">
       <c r="C242"/>
+      <c r="E242" s="6"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
@@ -7852,6 +7880,7 @@
     </row>
     <row r="243" spans="3:10">
       <c r="C243"/>
+      <c r="E243" s="6"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
@@ -7859,6 +7888,7 @@
     </row>
     <row r="244" spans="3:10">
       <c r="C244"/>
+      <c r="E244" s="6"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
@@ -7866,6 +7896,7 @@
     </row>
     <row r="245" spans="3:10">
       <c r="C245"/>
+      <c r="E245" s="6"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
@@ -7873,6 +7904,7 @@
     </row>
     <row r="246" spans="3:10">
       <c r="C246"/>
+      <c r="E246" s="6"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -7880,6 +7912,7 @@
     </row>
     <row r="247" spans="3:10">
       <c r="C247"/>
+      <c r="E247" s="6"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
@@ -7887,6 +7920,7 @@
     </row>
     <row r="248" spans="3:10">
       <c r="C248"/>
+      <c r="E248" s="6"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -7894,6 +7928,7 @@
     </row>
     <row r="249" spans="3:10">
       <c r="C249"/>
+      <c r="E249" s="6"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
@@ -7901,6 +7936,7 @@
     </row>
     <row r="250" spans="3:10">
       <c r="C250"/>
+      <c r="E250" s="6"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
@@ -7908,6 +7944,7 @@
     </row>
     <row r="251" spans="3:10">
       <c r="C251"/>
+      <c r="E251" s="6"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
@@ -7915,6 +7952,7 @@
     </row>
     <row r="252" spans="3:10">
       <c r="C252"/>
+      <c r="E252" s="6"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
@@ -7922,6 +7960,7 @@
     </row>
     <row r="253" spans="3:10">
       <c r="C253"/>
+      <c r="E253" s="6"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
@@ -7929,6 +7968,7 @@
     </row>
     <row r="254" spans="3:10" ht="15" customHeight="1">
       <c r="C254"/>
+      <c r="E254" s="6"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -7936,6 +7976,7 @@
     </row>
     <row r="255" spans="3:10">
       <c r="C255"/>
+      <c r="E255" s="6"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
@@ -7943,6 +7984,7 @@
     </row>
     <row r="256" spans="3:10">
       <c r="C256"/>
+      <c r="E256" s="6"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
@@ -7950,6 +7992,7 @@
     </row>
     <row r="257" spans="3:10">
       <c r="C257"/>
+      <c r="E257" s="6"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
@@ -7957,6 +8000,7 @@
     </row>
     <row r="258" spans="3:10">
       <c r="C258"/>
+      <c r="E258" s="6"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
@@ -7964,6 +8008,7 @@
     </row>
     <row r="259" spans="3:10">
       <c r="C259"/>
+      <c r="E259" s="6"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
@@ -7971,6 +8016,7 @@
     </row>
     <row r="260" spans="3:10">
       <c r="C260"/>
+      <c r="E260" s="6"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
@@ -7978,6 +8024,7 @@
     </row>
     <row r="261" spans="3:10">
       <c r="C261"/>
+      <c r="E261" s="6"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
@@ -7985,6 +8032,7 @@
     </row>
     <row r="262" spans="3:10">
       <c r="C262"/>
+      <c r="E262" s="6"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
@@ -7992,6 +8040,7 @@
     </row>
     <row r="263" spans="3:10">
       <c r="C263"/>
+      <c r="E263" s="6"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
@@ -7999,6 +8048,7 @@
     </row>
     <row r="264" spans="3:10">
       <c r="C264"/>
+      <c r="E264" s="6"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
@@ -8006,6 +8056,7 @@
     </row>
     <row r="265" spans="3:10">
       <c r="C265"/>
+      <c r="E265" s="6"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
@@ -8013,6 +8064,7 @@
     </row>
     <row r="266" spans="3:10">
       <c r="C266"/>
+      <c r="E266" s="6"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
@@ -8020,6 +8072,7 @@
     </row>
     <row r="267" spans="3:10">
       <c r="C267"/>
+      <c r="E267" s="6"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
@@ -8027,6 +8080,7 @@
     </row>
     <row r="268" spans="3:10">
       <c r="C268"/>
+      <c r="E268" s="6"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
@@ -8034,6 +8088,7 @@
     </row>
     <row r="269" spans="3:10">
       <c r="C269"/>
+      <c r="E269" s="6"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
@@ -8041,6 +8096,7 @@
     </row>
     <row r="270" spans="3:10">
       <c r="C270"/>
+      <c r="E270" s="6"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
@@ -8048,6 +8104,7 @@
     </row>
     <row r="271" spans="3:10">
       <c r="C271"/>
+      <c r="E271" s="6"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
@@ -8055,6 +8112,7 @@
     </row>
     <row r="272" spans="3:10">
       <c r="C272"/>
+      <c r="E272" s="6"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
@@ -8062,6 +8120,7 @@
     </row>
     <row r="273" spans="3:10">
       <c r="C273"/>
+      <c r="E273" s="6"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
@@ -8069,6 +8128,7 @@
     </row>
     <row r="274" spans="3:10">
       <c r="C274"/>
+      <c r="E274" s="6"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
@@ -8076,6 +8136,7 @@
     </row>
     <row r="275" spans="3:10">
       <c r="C275"/>
+      <c r="E275" s="6"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
@@ -8083,6 +8144,7 @@
     </row>
     <row r="276" spans="3:10">
       <c r="C276"/>
+      <c r="E276" s="6"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
@@ -8090,6 +8152,7 @@
     </row>
     <row r="277" spans="3:10">
       <c r="C277"/>
+      <c r="E277" s="6"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
@@ -8097,6 +8160,7 @@
     </row>
     <row r="278" spans="3:10">
       <c r="C278"/>
+      <c r="E278" s="6"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
@@ -8104,6 +8168,7 @@
     </row>
     <row r="279" spans="3:10">
       <c r="C279"/>
+      <c r="E279" s="6"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
@@ -8111,6 +8176,7 @@
     </row>
     <row r="280" spans="3:10">
       <c r="C280"/>
+      <c r="E280" s="6"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
@@ -8118,6 +8184,7 @@
     </row>
     <row r="281" spans="3:10">
       <c r="C281"/>
+      <c r="E281" s="6"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
@@ -8125,6 +8192,7 @@
     </row>
     <row r="282" spans="3:10">
       <c r="C282"/>
+      <c r="E282" s="6"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
@@ -8132,6 +8200,7 @@
     </row>
     <row r="283" spans="3:10">
       <c r="C283"/>
+      <c r="E283" s="6"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
@@ -8139,6 +8208,7 @@
     </row>
     <row r="284" spans="3:10">
       <c r="C284"/>
+      <c r="E284" s="6"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
@@ -8146,6 +8216,7 @@
     </row>
     <row r="285" spans="3:10">
       <c r="C285"/>
+      <c r="E285" s="6"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
@@ -8153,6 +8224,7 @@
     </row>
     <row r="286" spans="3:10">
       <c r="C286"/>
+      <c r="E286" s="6"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
@@ -8160,6 +8232,7 @@
     </row>
     <row r="287" spans="3:10">
       <c r="C287"/>
+      <c r="E287" s="6"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
@@ -8167,6 +8240,7 @@
     </row>
     <row r="288" spans="3:10">
       <c r="C288"/>
+      <c r="E288" s="6"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
@@ -8174,6 +8248,7 @@
     </row>
     <row r="289" spans="3:10">
       <c r="C289"/>
+      <c r="E289" s="6"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
@@ -8181,6 +8256,7 @@
     </row>
     <row r="290" spans="3:10">
       <c r="C290"/>
+      <c r="E290" s="6"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
@@ -8188,6 +8264,7 @@
     </row>
     <row r="291" spans="3:10">
       <c r="C291"/>
+      <c r="E291" s="6"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
@@ -8195,6 +8272,7 @@
     </row>
     <row r="292" spans="3:10">
       <c r="C292"/>
+      <c r="E292" s="6"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
@@ -8202,6 +8280,7 @@
     </row>
     <row r="293" spans="3:10">
       <c r="C293"/>
+      <c r="E293" s="6"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
@@ -8209,6 +8288,7 @@
     </row>
     <row r="294" spans="3:10">
       <c r="C294"/>
+      <c r="E294" s="6"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
@@ -8216,6 +8296,7 @@
     </row>
     <row r="295" spans="3:10">
       <c r="C295"/>
+      <c r="E295" s="6"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
@@ -8223,6 +8304,7 @@
     </row>
     <row r="296" spans="3:10">
       <c r="C296"/>
+      <c r="E296" s="6"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
@@ -8230,6 +8312,7 @@
     </row>
     <row r="297" spans="3:10">
       <c r="C297"/>
+      <c r="E297" s="6"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
@@ -8237,6 +8320,7 @@
     </row>
     <row r="298" spans="3:10">
       <c r="C298"/>
+      <c r="E298" s="6"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
@@ -8244,6 +8328,7 @@
     </row>
     <row r="299" spans="3:10">
       <c r="C299"/>
+      <c r="E299" s="6"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
@@ -8251,6 +8336,7 @@
     </row>
     <row r="300" spans="3:10">
       <c r="C300"/>
+      <c r="E300" s="6"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
@@ -8258,6 +8344,7 @@
     </row>
     <row r="301" spans="3:10">
       <c r="C301"/>
+      <c r="E301" s="6"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
@@ -8265,6 +8352,7 @@
     </row>
     <row r="302" spans="3:10">
       <c r="C302"/>
+      <c r="E302" s="6"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
@@ -8272,6 +8360,7 @@
     </row>
     <row r="303" spans="3:10">
       <c r="C303"/>
+      <c r="E303" s="6"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
@@ -8279,6 +8368,7 @@
     </row>
     <row r="304" spans="3:10">
       <c r="C304"/>
+      <c r="E304" s="6"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
@@ -8286,6 +8376,7 @@
     </row>
     <row r="305" spans="3:10">
       <c r="C305"/>
+      <c r="E305" s="6"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
@@ -8293,6 +8384,7 @@
     </row>
     <row r="306" spans="3:10">
       <c r="C306"/>
+      <c r="E306" s="6"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
@@ -8300,6 +8392,7 @@
     </row>
     <row r="307" spans="3:10">
       <c r="C307"/>
+      <c r="E307" s="6"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
@@ -8307,6 +8400,7 @@
     </row>
     <row r="308" spans="3:10">
       <c r="C308"/>
+      <c r="E308" s="6"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
@@ -8314,6 +8408,7 @@
     </row>
     <row r="309" spans="3:10">
       <c r="C309"/>
+      <c r="E309" s="6"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
@@ -8321,6 +8416,7 @@
     </row>
     <row r="310" spans="3:10">
       <c r="C310"/>
+      <c r="E310" s="6"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
@@ -8328,6 +8424,7 @@
     </row>
     <row r="311" spans="3:10">
       <c r="C311"/>
+      <c r="E311" s="6"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
@@ -8335,6 +8432,7 @@
     </row>
     <row r="312" spans="3:10">
       <c r="C312"/>
+      <c r="E312" s="6"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
@@ -8342,6 +8440,7 @@
     </row>
     <row r="313" spans="3:10">
       <c r="C313"/>
+      <c r="E313" s="6"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
@@ -8349,6 +8448,7 @@
     </row>
     <row r="314" spans="3:10">
       <c r="C314"/>
+      <c r="E314" s="6"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
@@ -25956,15 +26056,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8de4cfa398baf1d9935d13366250aa30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6332f520e18d59474426fc5504e0b9e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -26249,6 +26340,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5014D9-409A-43AD-83B1-4858560F7CE5}">
   <ds:schemaRefs>
@@ -26263,14 +26363,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E33ACC7-CE87-4B70-A091-FDB57C7E1EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26289,4 +26381,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16A2F4A-6505-4113-A639-1CAC95089921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Listino_agente.xlsx
+++ b/Listino_agente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.cavallo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846CB25-F87E-44AC-89B0-EEC229D78830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{671774A9-8DBE-45ED-9A74-211550B9F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50A4FDA-D44B-483F-BD21-108731467847}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B44CB66-D87B-4C59-BDD7-90547F1E0B03}"/>
   </bookViews>
@@ -2117,10 +2117,10 @@
     <t>https://i.postimg.cc/T3NNcm0K/CA_B0134_0WA_LUMIAR.jpg</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/rwZZ9Wjx/CA_B0134_1WC_BARISTA.png</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/Dwppcs68/CA_B0136_1WB_ARENAL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZKrZm8FZ/CA-B0134-1WC-BARISTA.jpg</t>
   </si>
 </sst>
 </file>
@@ -2316,6 +2316,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2637,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9E130-BDA4-467E-8A1B-5EE4AD58BFA7}">
   <dimension ref="A1:J2690"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2948,7 +2952,7 @@
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="20" t="s">
@@ -3020,7 +3024,7 @@
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -3044,7 +3048,7 @@
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -3068,7 +3072,7 @@
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -3092,7 +3096,7 @@
       <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="20" t="s">
@@ -3500,7 +3504,7 @@
       <c r="D36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -3524,7 +3528,7 @@
       <c r="D37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -3548,7 +3552,7 @@
       <c r="D38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="20" t="s">
@@ -3572,7 +3576,7 @@
       <c r="D39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="2" t="s">
         <v>689</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -3596,7 +3600,7 @@
       <c r="D40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -3620,7 +3624,7 @@
       <c r="D41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -3716,7 +3720,7 @@
       <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45" s="20" t="s">
@@ -4388,7 +4392,7 @@
       <c r="D73" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F73" s="20" t="s">
@@ -4436,7 +4440,7 @@
       <c r="D75" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F75" s="20" t="s">
@@ -5060,7 +5064,7 @@
       <c r="D101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="2" t="s">
         <v>687</v>
       </c>
       <c r="F101" s="20" t="s">
@@ -5106,7 +5110,7 @@
       <c r="D103" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="2" t="s">
         <v>688</v>
       </c>
       <c r="F103" s="20" t="s">
@@ -5130,7 +5134,7 @@
       <c r="D104" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F104" s="20" t="s">
@@ -5154,7 +5158,7 @@
       <c r="D105" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F105" s="20" t="s">
@@ -6739,7 +6743,7 @@
         <v>364</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F171" s="20" t="s">
         <v>681</v>
@@ -6787,7 +6791,7 @@
         <v>368</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F173" s="20" t="s">
         <v>683</v>
@@ -7624,7 +7628,6 @@
     </row>
     <row r="211" spans="1:10">
       <c r="C211"/>
-      <c r="E211" s="6"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -7632,7 +7635,6 @@
     </row>
     <row r="212" spans="1:10">
       <c r="C212"/>
-      <c r="E212" s="6"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -7640,7 +7642,6 @@
     </row>
     <row r="213" spans="1:10">
       <c r="C213"/>
-      <c r="E213" s="6"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -7648,7 +7649,6 @@
     </row>
     <row r="214" spans="1:10">
       <c r="C214"/>
-      <c r="E214" s="6"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -7656,7 +7656,6 @@
     </row>
     <row r="215" spans="1:10">
       <c r="C215"/>
-      <c r="E215" s="6"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -7664,7 +7663,6 @@
     </row>
     <row r="216" spans="1:10">
       <c r="C216"/>
-      <c r="E216" s="6"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -7672,7 +7670,6 @@
     </row>
     <row r="217" spans="1:10">
       <c r="C217"/>
-      <c r="E217" s="6"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
@@ -7680,7 +7677,6 @@
     </row>
     <row r="218" spans="1:10">
       <c r="C218"/>
-      <c r="E218" s="6"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
@@ -7688,7 +7684,6 @@
     </row>
     <row r="219" spans="1:10">
       <c r="C219"/>
-      <c r="E219" s="6"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
@@ -7696,7 +7691,6 @@
     </row>
     <row r="220" spans="1:10">
       <c r="C220"/>
-      <c r="E220" s="6"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -7704,7 +7698,6 @@
     </row>
     <row r="221" spans="1:10">
       <c r="C221"/>
-      <c r="E221" s="6"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
@@ -7712,7 +7705,6 @@
     </row>
     <row r="222" spans="1:10">
       <c r="C222"/>
-      <c r="E222" s="6"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -7720,7 +7712,6 @@
     </row>
     <row r="223" spans="1:10">
       <c r="C223"/>
-      <c r="E223" s="6"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -7728,7 +7719,6 @@
     </row>
     <row r="224" spans="1:10">
       <c r="C224"/>
-      <c r="E224" s="6"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -7736,7 +7726,6 @@
     </row>
     <row r="225" spans="3:10">
       <c r="C225"/>
-      <c r="E225" s="6"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -7744,7 +7733,6 @@
     </row>
     <row r="226" spans="3:10">
       <c r="C226"/>
-      <c r="E226" s="6"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -7752,7 +7740,6 @@
     </row>
     <row r="227" spans="3:10">
       <c r="C227"/>
-      <c r="E227" s="6"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -7760,7 +7747,6 @@
     </row>
     <row r="228" spans="3:10">
       <c r="C228"/>
-      <c r="E228" s="6"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -7768,7 +7754,6 @@
     </row>
     <row r="229" spans="3:10">
       <c r="C229"/>
-      <c r="E229" s="6"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -7776,7 +7761,6 @@
     </row>
     <row r="230" spans="3:10">
       <c r="C230"/>
-      <c r="E230" s="6"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -7784,7 +7768,6 @@
     </row>
     <row r="231" spans="3:10">
       <c r="C231"/>
-      <c r="E231" s="6"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
@@ -7792,7 +7775,6 @@
     </row>
     <row r="232" spans="3:10">
       <c r="C232"/>
-      <c r="E232" s="6"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -7800,7 +7782,6 @@
     </row>
     <row r="233" spans="3:10">
       <c r="C233"/>
-      <c r="E233" s="6"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
@@ -7808,7 +7789,6 @@
     </row>
     <row r="234" spans="3:10">
       <c r="C234"/>
-      <c r="E234" s="6"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -7816,7 +7796,6 @@
     </row>
     <row r="235" spans="3:10">
       <c r="C235"/>
-      <c r="E235" s="6"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
@@ -7824,7 +7803,6 @@
     </row>
     <row r="236" spans="3:10">
       <c r="C236"/>
-      <c r="E236" s="6"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -7832,7 +7810,6 @@
     </row>
     <row r="237" spans="3:10">
       <c r="C237"/>
-      <c r="E237" s="6"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
@@ -7840,7 +7817,6 @@
     </row>
     <row r="238" spans="3:10">
       <c r="C238"/>
-      <c r="E238" s="6"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -7848,7 +7824,6 @@
     </row>
     <row r="239" spans="3:10">
       <c r="C239"/>
-      <c r="E239" s="6"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
@@ -7856,7 +7831,6 @@
     </row>
     <row r="240" spans="3:10">
       <c r="C240"/>
-      <c r="E240" s="6"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -7864,7 +7838,6 @@
     </row>
     <row r="241" spans="3:10">
       <c r="C241"/>
-      <c r="E241" s="6"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -7872,7 +7845,6 @@
     </row>
     <row r="242" spans="3:10">
       <c r="C242"/>
-      <c r="E242" s="6"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
@@ -7880,7 +7852,6 @@
     </row>
     <row r="243" spans="3:10">
       <c r="C243"/>
-      <c r="E243" s="6"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
@@ -7888,7 +7859,6 @@
     </row>
     <row r="244" spans="3:10">
       <c r="C244"/>
-      <c r="E244" s="6"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
@@ -7896,7 +7866,6 @@
     </row>
     <row r="245" spans="3:10">
       <c r="C245"/>
-      <c r="E245" s="6"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
@@ -7904,7 +7873,6 @@
     </row>
     <row r="246" spans="3:10">
       <c r="C246"/>
-      <c r="E246" s="6"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -7912,7 +7880,6 @@
     </row>
     <row r="247" spans="3:10">
       <c r="C247"/>
-      <c r="E247" s="6"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
@@ -7920,7 +7887,6 @@
     </row>
     <row r="248" spans="3:10">
       <c r="C248"/>
-      <c r="E248" s="6"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -7928,7 +7894,6 @@
     </row>
     <row r="249" spans="3:10">
       <c r="C249"/>
-      <c r="E249" s="6"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
@@ -7936,7 +7901,6 @@
     </row>
     <row r="250" spans="3:10">
       <c r="C250"/>
-      <c r="E250" s="6"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
@@ -7944,7 +7908,6 @@
     </row>
     <row r="251" spans="3:10">
       <c r="C251"/>
-      <c r="E251" s="6"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
@@ -7952,7 +7915,6 @@
     </row>
     <row r="252" spans="3:10">
       <c r="C252"/>
-      <c r="E252" s="6"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
@@ -7960,7 +7922,6 @@
     </row>
     <row r="253" spans="3:10">
       <c r="C253"/>
-      <c r="E253" s="6"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
@@ -7968,7 +7929,6 @@
     </row>
     <row r="254" spans="3:10" ht="15" customHeight="1">
       <c r="C254"/>
-      <c r="E254" s="6"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -7976,7 +7936,6 @@
     </row>
     <row r="255" spans="3:10">
       <c r="C255"/>
-      <c r="E255" s="6"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
@@ -7984,7 +7943,6 @@
     </row>
     <row r="256" spans="3:10">
       <c r="C256"/>
-      <c r="E256" s="6"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
@@ -7992,7 +7950,6 @@
     </row>
     <row r="257" spans="3:10">
       <c r="C257"/>
-      <c r="E257" s="6"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
@@ -8000,7 +7957,6 @@
     </row>
     <row r="258" spans="3:10">
       <c r="C258"/>
-      <c r="E258" s="6"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
@@ -8008,7 +7964,6 @@
     </row>
     <row r="259" spans="3:10">
       <c r="C259"/>
-      <c r="E259" s="6"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
@@ -8016,7 +7971,6 @@
     </row>
     <row r="260" spans="3:10">
       <c r="C260"/>
-      <c r="E260" s="6"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
@@ -8024,7 +7978,6 @@
     </row>
     <row r="261" spans="3:10">
       <c r="C261"/>
-      <c r="E261" s="6"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
@@ -8032,7 +7985,6 @@
     </row>
     <row r="262" spans="3:10">
       <c r="C262"/>
-      <c r="E262" s="6"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
@@ -8040,7 +7992,6 @@
     </row>
     <row r="263" spans="3:10">
       <c r="C263"/>
-      <c r="E263" s="6"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
@@ -8048,7 +7999,6 @@
     </row>
     <row r="264" spans="3:10">
       <c r="C264"/>
-      <c r="E264" s="6"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
@@ -8056,7 +8006,6 @@
     </row>
     <row r="265" spans="3:10">
       <c r="C265"/>
-      <c r="E265" s="6"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
@@ -8064,7 +8013,6 @@
     </row>
     <row r="266" spans="3:10">
       <c r="C266"/>
-      <c r="E266" s="6"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
@@ -8072,7 +8020,6 @@
     </row>
     <row r="267" spans="3:10">
       <c r="C267"/>
-      <c r="E267" s="6"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
@@ -8080,7 +8027,6 @@
     </row>
     <row r="268" spans="3:10">
       <c r="C268"/>
-      <c r="E268" s="6"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
@@ -8088,7 +8034,6 @@
     </row>
     <row r="269" spans="3:10">
       <c r="C269"/>
-      <c r="E269" s="6"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
@@ -8096,7 +8041,6 @@
     </row>
     <row r="270" spans="3:10">
       <c r="C270"/>
-      <c r="E270" s="6"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
@@ -8104,7 +8048,6 @@
     </row>
     <row r="271" spans="3:10">
       <c r="C271"/>
-      <c r="E271" s="6"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
@@ -8112,7 +8055,6 @@
     </row>
     <row r="272" spans="3:10">
       <c r="C272"/>
-      <c r="E272" s="6"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
@@ -8120,7 +8062,6 @@
     </row>
     <row r="273" spans="3:10">
       <c r="C273"/>
-      <c r="E273" s="6"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
@@ -8128,7 +8069,6 @@
     </row>
     <row r="274" spans="3:10">
       <c r="C274"/>
-      <c r="E274" s="6"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
@@ -8136,7 +8076,6 @@
     </row>
     <row r="275" spans="3:10">
       <c r="C275"/>
-      <c r="E275" s="6"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
@@ -8144,7 +8083,6 @@
     </row>
     <row r="276" spans="3:10">
       <c r="C276"/>
-      <c r="E276" s="6"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
@@ -8152,7 +8090,6 @@
     </row>
     <row r="277" spans="3:10">
       <c r="C277"/>
-      <c r="E277" s="6"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
@@ -8160,7 +8097,6 @@
     </row>
     <row r="278" spans="3:10">
       <c r="C278"/>
-      <c r="E278" s="6"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
@@ -8168,7 +8104,6 @@
     </row>
     <row r="279" spans="3:10">
       <c r="C279"/>
-      <c r="E279" s="6"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
@@ -8176,7 +8111,6 @@
     </row>
     <row r="280" spans="3:10">
       <c r="C280"/>
-      <c r="E280" s="6"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
@@ -8184,7 +8118,6 @@
     </row>
     <row r="281" spans="3:10">
       <c r="C281"/>
-      <c r="E281" s="6"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
@@ -8192,7 +8125,6 @@
     </row>
     <row r="282" spans="3:10">
       <c r="C282"/>
-      <c r="E282" s="6"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
@@ -8200,7 +8132,6 @@
     </row>
     <row r="283" spans="3:10">
       <c r="C283"/>
-      <c r="E283" s="6"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
@@ -8208,7 +8139,6 @@
     </row>
     <row r="284" spans="3:10">
       <c r="C284"/>
-      <c r="E284" s="6"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
@@ -8216,7 +8146,6 @@
     </row>
     <row r="285" spans="3:10">
       <c r="C285"/>
-      <c r="E285" s="6"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
@@ -8224,7 +8153,6 @@
     </row>
     <row r="286" spans="3:10">
       <c r="C286"/>
-      <c r="E286" s="6"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
@@ -8232,7 +8160,6 @@
     </row>
     <row r="287" spans="3:10">
       <c r="C287"/>
-      <c r="E287" s="6"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
@@ -8240,7 +8167,6 @@
     </row>
     <row r="288" spans="3:10">
       <c r="C288"/>
-      <c r="E288" s="6"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
@@ -8248,7 +8174,6 @@
     </row>
     <row r="289" spans="3:10">
       <c r="C289"/>
-      <c r="E289" s="6"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
@@ -8256,7 +8181,6 @@
     </row>
     <row r="290" spans="3:10">
       <c r="C290"/>
-      <c r="E290" s="6"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
@@ -8264,7 +8188,6 @@
     </row>
     <row r="291" spans="3:10">
       <c r="C291"/>
-      <c r="E291" s="6"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
@@ -8272,7 +8195,6 @@
     </row>
     <row r="292" spans="3:10">
       <c r="C292"/>
-      <c r="E292" s="6"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
@@ -8280,7 +8202,6 @@
     </row>
     <row r="293" spans="3:10">
       <c r="C293"/>
-      <c r="E293" s="6"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
@@ -8288,7 +8209,6 @@
     </row>
     <row r="294" spans="3:10">
       <c r="C294"/>
-      <c r="E294" s="6"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
@@ -8296,7 +8216,6 @@
     </row>
     <row r="295" spans="3:10">
       <c r="C295"/>
-      <c r="E295" s="6"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
@@ -8304,7 +8223,6 @@
     </row>
     <row r="296" spans="3:10">
       <c r="C296"/>
-      <c r="E296" s="6"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
@@ -8312,7 +8230,6 @@
     </row>
     <row r="297" spans="3:10">
       <c r="C297"/>
-      <c r="E297" s="6"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
@@ -8320,7 +8237,6 @@
     </row>
     <row r="298" spans="3:10">
       <c r="C298"/>
-      <c r="E298" s="6"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
@@ -8328,7 +8244,6 @@
     </row>
     <row r="299" spans="3:10">
       <c r="C299"/>
-      <c r="E299" s="6"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
@@ -8336,7 +8251,6 @@
     </row>
     <row r="300" spans="3:10">
       <c r="C300"/>
-      <c r="E300" s="6"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
@@ -8344,7 +8258,6 @@
     </row>
     <row r="301" spans="3:10">
       <c r="C301"/>
-      <c r="E301" s="6"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
@@ -8352,7 +8265,6 @@
     </row>
     <row r="302" spans="3:10">
       <c r="C302"/>
-      <c r="E302" s="6"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
@@ -8360,7 +8272,6 @@
     </row>
     <row r="303" spans="3:10">
       <c r="C303"/>
-      <c r="E303" s="6"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
@@ -8368,7 +8279,6 @@
     </row>
     <row r="304" spans="3:10">
       <c r="C304"/>
-      <c r="E304" s="6"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
@@ -8376,7 +8286,6 @@
     </row>
     <row r="305" spans="3:10">
       <c r="C305"/>
-      <c r="E305" s="6"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
@@ -8384,7 +8293,6 @@
     </row>
     <row r="306" spans="3:10">
       <c r="C306"/>
-      <c r="E306" s="6"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
@@ -8392,7 +8300,6 @@
     </row>
     <row r="307" spans="3:10">
       <c r="C307"/>
-      <c r="E307" s="6"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
@@ -8400,7 +8307,6 @@
     </row>
     <row r="308" spans="3:10">
       <c r="C308"/>
-      <c r="E308" s="6"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
@@ -8408,7 +8314,6 @@
     </row>
     <row r="309" spans="3:10">
       <c r="C309"/>
-      <c r="E309" s="6"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
@@ -8416,7 +8321,6 @@
     </row>
     <row r="310" spans="3:10">
       <c r="C310"/>
-      <c r="E310" s="6"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
@@ -8424,7 +8328,6 @@
     </row>
     <row r="311" spans="3:10">
       <c r="C311"/>
-      <c r="E311" s="6"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
@@ -8432,7 +8335,6 @@
     </row>
     <row r="312" spans="3:10">
       <c r="C312"/>
-      <c r="E312" s="6"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
@@ -8440,7 +8342,6 @@
     </row>
     <row r="313" spans="3:10">
       <c r="C313"/>
-      <c r="E313" s="6"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
@@ -8448,7 +8349,6 @@
     </row>
     <row r="314" spans="3:10">
       <c r="C314"/>
-      <c r="E314" s="6"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
